--- a/mnist_rankfiltering_new.xlsx
+++ b/mnist_rankfiltering_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Mnist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CD828B-BDE5-4149-B6FD-0C7BFF633AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29134DA8-D066-4100-B49C-82CC92DE9903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="8" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="9" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
   </bookViews>
   <sheets>
     <sheet name="ace85svm" sheetId="5" state="hidden" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="ace svm 25% " sheetId="12" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="15" r:id="rId9"/>
-    <sheet name="ace recur eps evm 75 percentile" sheetId="13" state="hidden" r:id="rId10"/>
-    <sheet name="ace%10" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="ace%15" sheetId="8" state="hidden" r:id="rId12"/>
-    <sheet name="ace%70 svm" sheetId="2" state="hidden" r:id="rId13"/>
-    <sheet name="ace%80 svm" sheetId="3" state="hidden" r:id="rId14"/>
-    <sheet name="ace80svm" sheetId="4" state="hidden" r:id="rId15"/>
+    <sheet name="Sheet3" sheetId="16" r:id="rId10"/>
+    <sheet name="ace recur eps evm 75 percentile" sheetId="13" state="hidden" r:id="rId11"/>
+    <sheet name="ace%10" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="ace%15" sheetId="8" state="hidden" r:id="rId13"/>
+    <sheet name="ace%70 svm" sheetId="2" state="hidden" r:id="rId14"/>
+    <sheet name="ace%80 svm" sheetId="3" state="hidden" r:id="rId15"/>
+    <sheet name="ace80svm" sheetId="4" state="hidden" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="63">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -158,12 +159,262 @@
   <si>
     <t>% Label Noise Induced</t>
   </si>
+  <si>
+    <t>SVM with L1PCA dist based Training Data Curation</t>
+  </si>
+  <si>
+    <t>SVM on Original File without Data Curation</t>
+  </si>
+  <si>
+    <t>PREDICTED</t>
+  </si>
+  <si>
+    <t>TPR=tp/(tp+fn)</t>
+  </si>
+  <si>
+    <t>Recall, power</t>
+  </si>
+  <si>
+    <t>FPR=fp/(fp+tn)</t>
+  </si>
+  <si>
+    <t>pr of false alarm, type 1err</t>
+  </si>
+  <si>
+    <t>TNR=tn/(tn+fp)</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>FNR=fn/(fn+tp)</t>
+  </si>
+  <si>
+    <t>Miss rate, type II err</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power/ True Positive Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          = 0.981</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Power/ False Negative Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   = 0.019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1-Probability of False Alarm/   True Negative Rate  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     = 0.974</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prob of False Alarm/
+ False Positive Rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                  
+ = 0.025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power/ True Positive Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          =0.946</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Power/ False Negative Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   = 0.053</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prob of False Alarm/ 
+False Positive Rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                   
+= 0.025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hamming Loss   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        = 0.023 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hamming Loss   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        = 0.039</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +446,26 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,8 +526,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -553,11 +840,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -623,6 +936,90 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -647,12 +1044,33 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,12 +1391,12 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -986,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="76"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -1712,6 +2130,413 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B864E593-9995-4139-B428-9045FE6DD915}">
+  <dimension ref="B1:L23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="3" width="8.77734375" style="49"/>
+    <col min="4" max="4" width="27" style="49" customWidth="1"/>
+    <col min="5" max="5" width="26" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="49" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" style="49"/>
+    <col min="9" max="9" width="10.5546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" style="49" customWidth="1"/>
+    <col min="11" max="11" width="26" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="51"/>
+      <c r="J2" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="88"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.55" customHeight="1">
+      <c r="D3" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="52"/>
+      <c r="J3" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="90"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1">
+      <c r="D4" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="J4" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="14.55" customHeight="1">
+      <c r="B5" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="58">
+        <f>C14</f>
+        <v>1975.8</v>
+      </c>
+      <c r="E5" s="59">
+        <f>D14</f>
+        <v>51.2</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="58">
+        <f>C20</f>
+        <v>1975.8</v>
+      </c>
+      <c r="K5" s="59">
+        <f>D20</f>
+        <v>51.2</v>
+      </c>
+      <c r="L5" s="85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1">
+      <c r="B6" s="84"/>
+      <c r="C6" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="58">
+        <f>C15</f>
+        <v>36.6</v>
+      </c>
+      <c r="E6" s="59">
+        <f>D15</f>
+        <v>1838.4</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="58">
+        <f>C21</f>
+        <v>99.6</v>
+      </c>
+      <c r="K6" s="59">
+        <f>D21</f>
+        <v>1775.4</v>
+      </c>
+      <c r="L6" s="86"/>
+    </row>
+    <row r="7" spans="2:12" ht="28.8">
+      <c r="D7" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="63"/>
+      <c r="J7" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="43.8" thickBot="1">
+      <c r="D8" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="J8" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="G10" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="G11" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1"/>
+    <row r="13" spans="2:12">
+      <c r="C13" s="49">
+        <v>0</v>
+      </c>
+      <c r="D13" s="49">
+        <v>1</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="68">
+        <f>E6/(E6+D6)</f>
+        <v>0.98048000000000002</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="49">
+        <f>(F13-F19)/F19*100</f>
+        <v>3.5484961135518716</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickBot="1">
+      <c r="B14" s="49">
+        <v>0</v>
+      </c>
+      <c r="C14" s="49">
+        <v>1975.8</v>
+      </c>
+      <c r="D14" s="49">
+        <v>51.2</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="59">
+        <f>E5/(E5+D5)</f>
+        <v>2.5259003453379381E-2</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="49">
+        <v>1</v>
+      </c>
+      <c r="C15" s="49">
+        <v>36.6</v>
+      </c>
+      <c r="D15" s="49">
+        <v>1838.4</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="59">
+        <f>D5/(D5+E5)</f>
+        <v>0.97474099654662061</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="70"/>
+      <c r="K15" s="49">
+        <f>(0.04-0.02)/0.04*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1">
+      <c r="B16" s="49">
+        <v>2</v>
+      </c>
+      <c r="C16" s="49">
+        <v>0.98048000000000002</v>
+      </c>
+      <c r="D16" s="49">
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="72">
+        <f>D6/(D6+E6)</f>
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="73">
+        <f>(D5+E6)/(D5+E5+E6+D6)</f>
+        <v>0.97749871860584314</v>
+      </c>
+      <c r="J16" s="74">
+        <f>(J5+K6)/SUM(J5:K6)</f>
+        <v>0.96135315222962581</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="49">
+        <v>3</v>
+      </c>
+      <c r="C17" s="49">
+        <v>0.97474099999999997</v>
+      </c>
+      <c r="D17" s="49">
+        <v>2.5259E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickBot="1">
+      <c r="I18" s="91">
+        <f>1-I16</f>
+        <v>2.2501281394156858E-2</v>
+      </c>
+      <c r="J18" s="91">
+        <f>1-J16</f>
+        <v>3.8646847770374193E-2</v>
+      </c>
+      <c r="K18" s="49">
+        <f>(J18-I18)/J18</f>
+        <v>0.41777188328912468</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="C19" s="49">
+        <v>0</v>
+      </c>
+      <c r="D19" s="49">
+        <v>1</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="68">
+        <f>K6/(J6+K6)</f>
+        <v>0.94688000000000005</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="49">
+        <v>0</v>
+      </c>
+      <c r="C20" s="49">
+        <v>1975.8</v>
+      </c>
+      <c r="D20" s="49">
+        <v>51.2</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="59">
+        <f>K5/(K5+J5)</f>
+        <v>2.5259003453379381E-2</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="49">
+        <v>1</v>
+      </c>
+      <c r="C21" s="49">
+        <v>99.6</v>
+      </c>
+      <c r="D21" s="49">
+        <v>1775.4</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="59">
+        <f>J5/(J5+K5)</f>
+        <v>0.97474099654662061</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15" thickBot="1">
+      <c r="B22" s="49">
+        <v>2</v>
+      </c>
+      <c r="C22" s="49">
+        <v>0.94688000000000005</v>
+      </c>
+      <c r="D22" s="49">
+        <v>5.3120000000000001E-2</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="72">
+        <f>J6/(J6+K6)</f>
+        <v>5.3119999999999994E-2</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="49">
+        <v>3</v>
+      </c>
+      <c r="C23" s="49">
+        <v>0.97474099999999997</v>
+      </c>
+      <c r="D23" s="49">
+        <v>2.5259E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B7EB0-97FE-4240-A4DE-1E39791B3C3D}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -1719,19 +2544,19 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="51"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -1948,7 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043E0DC0-F016-4AF6-A513-992480384507}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -1956,17 +2781,17 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="76"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -2674,741 +3499,6 @@
       </c>
       <c r="C45" s="4">
         <v>23.809524</v>
-      </c>
-      <c r="D45" s="4">
-        <v>27.36787</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADC542-DE48-4E27-9C80-E62713485DC9}">
-  <dimension ref="A1:K45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.6745159999999999</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.15123</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f>SUM(C3,C12,C21,C30,C39)/5</f>
-        <v>1.8733648000000003</v>
-      </c>
-      <c r="G3" s="8">
-        <f>SUM(D3,D12,D21,D30,D39)/5</f>
-        <v>1.2454212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
-        <v>1.8001047999999997</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4652014000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.831502</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8001048000000002</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9256934000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2.616431</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4.2386189999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.616431</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.2072213999999999</v>
-      </c>
-      <c r="I6">
-        <f>$G6-F6</f>
-        <v>1.5907903999999999</v>
-      </c>
-      <c r="K6">
-        <f>I6/G6*100</f>
-        <v>37.810950476720812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5.5468339999999996</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.7912090000000003</v>
-      </c>
-      <c r="E7" s="10">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>6.3526948000000001</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>8.9900577999999989</v>
-      </c>
-      <c r="I7">
-        <f>$G7-F7</f>
-        <v>2.6373629999999988</v>
-      </c>
-      <c r="K7">
-        <f>I7/G7*100</f>
-        <v>29.336440973716531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4">
-        <v>12.663527</v>
-      </c>
-      <c r="D8" s="4">
-        <v>17.111460000000001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>12.098377800000002</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>17.226582999999998</v>
-      </c>
-      <c r="I8">
-        <f>$G8-F8</f>
-        <v>5.1282051999999965</v>
-      </c>
-      <c r="K8">
-        <f>I8/G8*100</f>
-        <v>29.769137617135083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>21.245421</v>
-      </c>
-      <c r="D9" s="4">
-        <v>26.373626000000002</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>22.574568199999998</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>26.3526946</v>
-      </c>
-      <c r="I9">
-        <f>$G9-F9</f>
-        <v>3.7781264000000014</v>
-      </c>
-      <c r="K9">
-        <f>I9/G9*100</f>
-        <v>14.336774501989643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <f>SUM(I3:I9)/7</f>
-        <v>1.8763549999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2.407117</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.360544</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I5:I7)/3</f>
-        <v>1.4093844666666662</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2.040816</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.51753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1.7791729999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.988488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3.0350600000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4.2909470000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6.4887490000000003</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.5295660000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>13.814757</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18.524332999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4">
-        <v>22.762951000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>25.117739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.622187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2.1978019999999998</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.8838299999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2.2501310000000001</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3.0350600000000001</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.8665620000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6.017792</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9.105181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10.361068</v>
-      </c>
-      <c r="D26" s="4">
-        <v>16.326530999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4">
-        <v>50</v>
-      </c>
-      <c r="C27" s="4">
-        <v>22.448979999999999</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25.013082000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.465201</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.73260099999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4">
-        <v>5</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1.15123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4">
-        <v>20</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2.7734169999999998</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3.1397170000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4">
-        <v>6.227106</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8.2679229999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4">
-        <v>40</v>
-      </c>
-      <c r="C35" s="4">
-        <v>11.616954</v>
-      </c>
-      <c r="D35" s="4">
-        <v>16.902145000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4">
-        <v>50</v>
-      </c>
-      <c r="C36" s="4">
-        <v>23.809524</v>
-      </c>
-      <c r="D36" s="4">
-        <v>27.891155999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1.360544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4">
-        <v>5</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1.936159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4">
-        <v>20</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1.622187</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4.5002620000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4">
-        <v>7.4829929999999996</v>
-      </c>
-      <c r="D43" s="4">
-        <v>10.256410000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4">
-        <v>12.035583000000001</v>
-      </c>
-      <c r="D44" s="4">
-        <v>17.268446000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4">
-        <v>50</v>
-      </c>
-      <c r="C45" s="4">
-        <v>22.605965000000001</v>
       </c>
       <c r="D45" s="4">
         <v>27.36787</v>
@@ -3423,6 +3513,741 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADC542-DE48-4E27-9C80-E62713485DC9}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="76"/>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.6745159999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.15123</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(C3,C12,C21,C30,C39)/5</f>
+        <v>1.8733648000000003</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(D3,D12,D21,D30,D39)/5</f>
+        <v>1.2454212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
+        <v>1.8001047999999997</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4652014000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.831502</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8001048000000002</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9256934000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.616431</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.616431</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I6">
+        <f>$G6-F6</f>
+        <v>1.5907903999999999</v>
+      </c>
+      <c r="K6">
+        <f>I6/G6*100</f>
+        <v>37.810950476720812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.5468339999999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.7912090000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3526948000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9900577999999989</v>
+      </c>
+      <c r="I7">
+        <f>$G7-F7</f>
+        <v>2.6373629999999988</v>
+      </c>
+      <c r="K7">
+        <f>I7/G7*100</f>
+        <v>29.336440973716531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12.663527</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.111460000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>12.098377800000002</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>17.226582999999998</v>
+      </c>
+      <c r="I8">
+        <f>$G8-F8</f>
+        <v>5.1282051999999965</v>
+      </c>
+      <c r="K8">
+        <f>I8/G8*100</f>
+        <v>29.769137617135083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>21.245421</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26.373626000000002</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>22.574568199999998</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>26.3526946</v>
+      </c>
+      <c r="I9">
+        <f>$G9-F9</f>
+        <v>3.7781264000000014</v>
+      </c>
+      <c r="K9">
+        <f>I9/G9*100</f>
+        <v>14.336774501989643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>1.8763549999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.407117</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.360544</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I5:I7)/3</f>
+        <v>1.4093844666666662</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.040816</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.51753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.7791729999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.988488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.0350600000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.4887490000000003</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.5295660000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13.814757</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18.524332999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>22.762951000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.117739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.622187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2.1978019999999998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8838299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.2501310000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.0350600000000001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.017792</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.105181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10.361068</v>
+      </c>
+      <c r="D26" s="4">
+        <v>16.326530999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>22.448979999999999</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25.013082000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.465201</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.73260099999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.15123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.7734169999999998</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.227106</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8.2679229999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4">
+        <v>11.616954</v>
+      </c>
+      <c r="D35" s="4">
+        <v>16.902145000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>23.809524</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27.891155999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.360544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.936159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.622187</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.5002620000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4">
+        <v>7.4829929999999996</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10.256410000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>12.035583000000001</v>
+      </c>
+      <c r="D44" s="4">
+        <v>17.268446000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>22.605965000000001</v>
+      </c>
+      <c r="D45" s="4">
+        <v>27.36787</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B45D620-F4D9-41D4-9209-FD4CDAC74CC7}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -3430,9 +4255,9 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3441,10 +4266,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="76"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -3933,7 +4758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E60F0C-121E-4CA4-AD01-FA0B3C207F39}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -3941,12 +4766,12 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3954,10 +4779,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="76"/>
       <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
@@ -4265,11 +5090,11 @@
       <c r="D13" s="4">
         <v>1.51753</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3">
@@ -4715,7 +5540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7E4CB-1013-4A61-8F30-D13FBB6C7CB7}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -4723,13 +5548,13 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="10.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4737,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="76"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -5473,12 +6298,12 @@
       <selection activeCell="E5" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5486,10 +6311,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="76"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -5796,13 +6621,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -6250,10 +7075,10 @@
       <selection activeCell="F6" sqref="F6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -6261,10 +7086,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="76"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -6571,13 +7396,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -7026,10 +7851,10 @@
       <selection activeCell="F6" sqref="F6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7037,10 +7862,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="76"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -7351,13 +8176,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -7806,7 +8631,7 @@
       <selection activeCell="F1" sqref="F1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -8041,7 +8866,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -8247,23 +9072,23 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="51"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -8492,16 +9317,16 @@
       <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="51"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -8726,28 +9551,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E894F1-EAC2-4F87-879C-87282A7D2E04}">
   <dimension ref="C2:F4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
-      <c r="C2" s="54"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="55"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="44" t="s">
@@ -8756,7 +9581,7 @@
       <c r="E3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8764,13 +9589,13 @@
       <c r="C4" s="5">
         <v>20</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="48">
         <v>2.2450028</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="48">
         <v>3.9005637999999996</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="48">
         <v>42.444146151384572</v>
       </c>
     </row>

--- a/mnist_rankfiltering_new.xlsx
+++ b/mnist_rankfiltering_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Mnist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29134DA8-D066-4100-B49C-82CC92DE9903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C817EF8C-8B44-466F-8764-A40E98C28028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="9" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
+    <workbookView xWindow="2916" yWindow="2916" windowWidth="14400" windowHeight="7476" firstSheet="6" activeTab="10" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
   </bookViews>
   <sheets>
     <sheet name="ace85svm" sheetId="5" state="hidden" r:id="rId1"/>
@@ -23,14 +23,16 @@
     <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="15" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="16" r:id="rId10"/>
-    <sheet name="ace recur eps evm 75 percentile" sheetId="13" state="hidden" r:id="rId11"/>
-    <sheet name="ace%10" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="ace%15" sheetId="8" state="hidden" r:id="rId13"/>
-    <sheet name="ace%70 svm" sheetId="2" state="hidden" r:id="rId14"/>
-    <sheet name="ace%80 svm" sheetId="3" state="hidden" r:id="rId15"/>
-    <sheet name="ace80svm" sheetId="4" state="hidden" r:id="rId16"/>
+    <sheet name="dbscanclust_l1pca" sheetId="17" r:id="rId11"/>
+    <sheet name="ace recur eps evm 75 percentile" sheetId="13" state="hidden" r:id="rId12"/>
+    <sheet name="ace%10" sheetId="7" state="hidden" r:id="rId13"/>
+    <sheet name="ace%15" sheetId="8" state="hidden" r:id="rId14"/>
+    <sheet name="ace%70 svm" sheetId="2" state="hidden" r:id="rId15"/>
+    <sheet name="ace%80 svm" sheetId="3" state="hidden" r:id="rId16"/>
+    <sheet name="ace80svm" sheetId="4" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="70">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -406,6 +408,27 @@
       <t xml:space="preserve">        = 0.039</t>
     </r>
   </si>
+  <si>
+    <t>Curated  Data</t>
+  </si>
+  <si>
+    <t>Raw  Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power </t>
+  </si>
+  <si>
+    <t>Probability of False Alarm</t>
+  </si>
+  <si>
+    <t>Error Rate</t>
+  </si>
+  <si>
+    <t>class1</t>
+  </si>
+  <si>
+    <t>class7</t>
+  </si>
 </sst>
 </file>
 
@@ -414,7 +437,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,8 +487,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,8 +585,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -866,11 +919,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1020,6 +1140,70 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1068,8 +1252,32 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,12 +1599,12 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1404,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="104"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -2133,48 +2341,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B864E593-9995-4139-B428-9045FE6DD915}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="8.77734375" style="49"/>
+    <col min="1" max="3" width="8.81640625" style="49"/>
     <col min="4" max="4" width="27" style="49" customWidth="1"/>
     <col min="5" max="5" width="26" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="49" customWidth="1"/>
-    <col min="7" max="8" width="8.77734375" style="49"/>
-    <col min="9" max="9" width="10.5546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="49" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" style="49"/>
+    <col min="9" max="9" width="10.54296875" style="49" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="49" customWidth="1"/>
     <col min="11" max="11" width="26" style="49" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="8.77734375" style="49"/>
+    <col min="13" max="16384" width="8.81640625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1"/>
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="51"/>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="88"/>
-    </row>
-    <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="89" t="s">
+      <c r="K2" s="116"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.5" customHeight="1">
+      <c r="D3" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="90"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="52"/>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="90"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="53" t="s">
@@ -2191,8 +2399,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="83" t="b">
+    <row r="5" spans="2:12" ht="14.5" customHeight="1">
+      <c r="B5" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -2206,10 +2414,10 @@
         <f>D14</f>
         <v>51.2</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="83" t="b">
+      <c r="H5" s="111" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="57" t="s">
@@ -2223,12 +2431,12 @@
         <f>D20</f>
         <v>51.2</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="113" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="84"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="60" t="s">
         <v>49</v>
       </c>
@@ -2240,8 +2448,8 @@
         <f>D15</f>
         <v>1838.4</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="H6" s="84"/>
+      <c r="F6" s="114"/>
+      <c r="H6" s="112"/>
       <c r="I6" s="60" t="s">
         <v>49</v>
       </c>
@@ -2253,9 +2461,9 @@
         <f>D21</f>
         <v>1775.4</v>
       </c>
-      <c r="L6" s="86"/>
-    </row>
-    <row r="7" spans="2:12" ht="28.8">
+      <c r="L6" s="114"/>
+    </row>
+    <row r="7" spans="2:12" ht="29">
       <c r="D7" s="61" t="s">
         <v>54</v>
       </c>
@@ -2270,7 +2478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="43.8" thickBot="1">
+    <row r="8" spans="2:12" ht="44" thickBot="1">
       <c r="D8" s="64" t="s">
         <v>56</v>
       </c>
@@ -2415,11 +2623,11 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1">
-      <c r="I18" s="91">
+      <c r="I18" s="75">
         <f>1-I16</f>
         <v>2.2501281394156858E-2</v>
       </c>
-      <c r="J18" s="91">
+      <c r="J18" s="75">
         <f>1-J16</f>
         <v>3.8646847770374193E-2</v>
       </c>
@@ -2537,6 +2745,177 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B586F451-B7ED-4DDA-BEA7-EED6C5CA40EE}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="B1" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="G1" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="126"/>
+      <c r="I1" s="127"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1"/>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="122"/>
+      <c r="E3" s="84"/>
+      <c r="H3" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="124"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="81">
+        <v>1976.8</v>
+      </c>
+      <c r="D5" s="87">
+        <v>50.2</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="81">
+        <v>1975.8</v>
+      </c>
+      <c r="I5" s="87">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="A6" s="120"/>
+      <c r="B6" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="79">
+        <v>37.4</v>
+      </c>
+      <c r="D6" s="80">
+        <v>1837.6</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="79">
+        <v>99.6</v>
+      </c>
+      <c r="I6" s="80">
+        <v>1775.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="N8" s="85"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95">
+        <v>0.98005299999999995</v>
+      </c>
+      <c r="D9" s="96"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="32">
+        <v>0.94688000000000005</v>
+      </c>
+      <c r="I9" s="88"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="A10" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="89"/>
+      <c r="C10" s="97">
+        <v>2.4766E-2</v>
+      </c>
+      <c r="D10" s="98"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90">
+        <v>2.5259E-2</v>
+      </c>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1">
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1">
+      <c r="A13" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102">
+        <v>2.2450000000000001E-2</v>
+      </c>
+      <c r="D13" s="99"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="102">
+        <v>3.8647000000000001E-2</v>
+      </c>
+      <c r="I13" s="99"/>
+      <c r="K13">
+        <f>(H13-C13)/H13 *100</f>
+        <v>41.910109452221391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B7EB0-97FE-4240-A4DE-1E39791B3C3D}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -2544,19 +2923,19 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="81"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -2773,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043E0DC0-F016-4AF6-A513-992480384507}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -2781,17 +3160,17 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="104"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -3499,741 +3878,6 @@
       </c>
       <c r="C45" s="4">
         <v>23.809524</v>
-      </c>
-      <c r="D45" s="4">
-        <v>27.36787</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADC542-DE48-4E27-9C80-E62713485DC9}">
-  <dimension ref="A1:K45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="76"/>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.6745159999999999</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.15123</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f>SUM(C3,C12,C21,C30,C39)/5</f>
-        <v>1.8733648000000003</v>
-      </c>
-      <c r="G3" s="8">
-        <f>SUM(D3,D12,D21,D30,D39)/5</f>
-        <v>1.2454212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
-        <v>1.8001047999999997</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4652014000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.831502</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8001048000000002</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9256934000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2.616431</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4.2386189999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.616431</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.2072213999999999</v>
-      </c>
-      <c r="I6">
-        <f>$G6-F6</f>
-        <v>1.5907903999999999</v>
-      </c>
-      <c r="K6">
-        <f>I6/G6*100</f>
-        <v>37.810950476720812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5.5468339999999996</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.7912090000000003</v>
-      </c>
-      <c r="E7" s="10">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>6.3526948000000001</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>8.9900577999999989</v>
-      </c>
-      <c r="I7">
-        <f>$G7-F7</f>
-        <v>2.6373629999999988</v>
-      </c>
-      <c r="K7">
-        <f>I7/G7*100</f>
-        <v>29.336440973716531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4">
-        <v>12.663527</v>
-      </c>
-      <c r="D8" s="4">
-        <v>17.111460000000001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>12.098377800000002</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>17.226582999999998</v>
-      </c>
-      <c r="I8">
-        <f>$G8-F8</f>
-        <v>5.1282051999999965</v>
-      </c>
-      <c r="K8">
-        <f>I8/G8*100</f>
-        <v>29.769137617135083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>21.245421</v>
-      </c>
-      <c r="D9" s="4">
-        <v>26.373626000000002</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>22.574568199999998</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>26.3526946</v>
-      </c>
-      <c r="I9">
-        <f>$G9-F9</f>
-        <v>3.7781264000000014</v>
-      </c>
-      <c r="K9">
-        <f>I9/G9*100</f>
-        <v>14.336774501989643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <f>SUM(I3:I9)/7</f>
-        <v>1.8763549999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2.407117</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.360544</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I5:I7)/3</f>
-        <v>1.4093844666666662</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2.040816</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.51753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1.7791729999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.988488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3.0350600000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4.2909470000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6.4887490000000003</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.5295660000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>13.814757</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18.524332999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4">
-        <v>22.762951000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>25.117739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.622187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2.1978019999999998</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.8838299999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2.2501310000000001</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3.0350600000000001</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.8665620000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6.017792</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9.105181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10.361068</v>
-      </c>
-      <c r="D26" s="4">
-        <v>16.326530999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4">
-        <v>50</v>
-      </c>
-      <c r="C27" s="4">
-        <v>22.448979999999999</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25.013082000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.465201</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.73260099999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4">
-        <v>5</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1.15123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4">
-        <v>20</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2.7734169999999998</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3.1397170000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4">
-        <v>6.227106</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8.2679229999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4">
-        <v>40</v>
-      </c>
-      <c r="C35" s="4">
-        <v>11.616954</v>
-      </c>
-      <c r="D35" s="4">
-        <v>16.902145000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4">
-        <v>50</v>
-      </c>
-      <c r="C36" s="4">
-        <v>23.809524</v>
-      </c>
-      <c r="D36" s="4">
-        <v>27.891155999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1.360544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4">
-        <v>5</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1.936159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4">
-        <v>20</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1.622187</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4.5002620000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4">
-        <v>7.4829929999999996</v>
-      </c>
-      <c r="D43" s="4">
-        <v>10.256410000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4">
-        <v>12.035583000000001</v>
-      </c>
-      <c r="D44" s="4">
-        <v>17.268446000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4">
-        <v>50</v>
-      </c>
-      <c r="C45" s="4">
-        <v>22.605965000000001</v>
       </c>
       <c r="D45" s="4">
         <v>27.36787</v>
@@ -4248,6 +3892,741 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADC542-DE48-4E27-9C80-E62713485DC9}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="104"/>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.6745159999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.15123</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(C3,C12,C21,C30,C39)/5</f>
+        <v>1.8733648000000003</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(D3,D12,D21,D30,D39)/5</f>
+        <v>1.2454212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
+        <v>1.8001047999999997</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4652014000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.831502</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8001048000000002</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9256934000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.616431</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.616431</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I6">
+        <f>$G6-F6</f>
+        <v>1.5907903999999999</v>
+      </c>
+      <c r="K6">
+        <f>I6/G6*100</f>
+        <v>37.810950476720812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.5468339999999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.7912090000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3526948000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9900577999999989</v>
+      </c>
+      <c r="I7">
+        <f>$G7-F7</f>
+        <v>2.6373629999999988</v>
+      </c>
+      <c r="K7">
+        <f>I7/G7*100</f>
+        <v>29.336440973716531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12.663527</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.111460000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>12.098377800000002</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>17.226582999999998</v>
+      </c>
+      <c r="I8">
+        <f>$G8-F8</f>
+        <v>5.1282051999999965</v>
+      </c>
+      <c r="K8">
+        <f>I8/G8*100</f>
+        <v>29.769137617135083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>21.245421</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26.373626000000002</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>22.574568199999998</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>26.3526946</v>
+      </c>
+      <c r="I9">
+        <f>$G9-F9</f>
+        <v>3.7781264000000014</v>
+      </c>
+      <c r="K9">
+        <f>I9/G9*100</f>
+        <v>14.336774501989643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>1.8763549999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.407117</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.360544</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I5:I7)/3</f>
+        <v>1.4093844666666662</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.040816</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.51753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.7791729999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.988488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.0350600000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.4887490000000003</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.5295660000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13.814757</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18.524332999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>22.762951000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.117739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.622187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2.1978019999999998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8838299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.2501310000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.0350600000000001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.017792</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.105181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10.361068</v>
+      </c>
+      <c r="D26" s="4">
+        <v>16.326530999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>22.448979999999999</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25.013082000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.465201</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.73260099999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.15123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.7734169999999998</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.227106</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8.2679229999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4">
+        <v>11.616954</v>
+      </c>
+      <c r="D35" s="4">
+        <v>16.902145000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>23.809524</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27.891155999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.360544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.936159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.622187</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.5002620000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4">
+        <v>7.4829929999999996</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10.256410000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>12.035583000000001</v>
+      </c>
+      <c r="D44" s="4">
+        <v>17.268446000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>22.605965000000001</v>
+      </c>
+      <c r="D45" s="4">
+        <v>27.36787</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B45D620-F4D9-41D4-9209-FD4CDAC74CC7}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -4255,9 +4634,9 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4266,10 +4645,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="104"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -4758,7 +5137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E60F0C-121E-4CA4-AD01-FA0B3C207F39}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -4766,12 +5145,12 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4779,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="104"/>
       <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
@@ -5090,11 +5469,11 @@
       <c r="D13" s="4">
         <v>1.51753</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3">
@@ -5540,7 +5919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7E4CB-1013-4A61-8F30-D13FBB6C7CB7}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5548,13 +5927,13 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5562,10 +5941,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="104"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -6298,12 +6677,12 @@
       <selection activeCell="E5" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -6311,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="104"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -6621,13 +7000,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -7075,10 +7454,10 @@
       <selection activeCell="F6" sqref="F6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7086,10 +7465,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="104"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -7396,13 +7775,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -7851,10 +8230,10 @@
       <selection activeCell="F6" sqref="F6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7862,10 +8241,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="104"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -8176,13 +8555,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -8631,7 +9010,7 @@
       <selection activeCell="F1" sqref="F1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -8866,7 +9245,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -9075,20 +9454,20 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="29.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="81"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -9317,16 +9696,16 @@
       <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="81"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -9555,20 +9934,20 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="46"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="82"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="3:6">

--- a/mnist_rankfiltering_new.xlsx
+++ b/mnist_rankfiltering_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Mnist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C817EF8C-8B44-466F-8764-A40E98C28028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B79C62-9E11-4729-BAB9-3B1EE30E3274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2916" yWindow="2916" windowWidth="14400" windowHeight="7476" firstSheet="6" activeTab="10" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
   </bookViews>
   <sheets>
     <sheet name="ace85svm" sheetId="5" state="hidden" r:id="rId1"/>
@@ -24,15 +24,15 @@
     <sheet name="Sheet2" sheetId="15" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="16" r:id="rId10"/>
     <sheet name="dbscanclust_l1pca" sheetId="17" r:id="rId11"/>
-    <sheet name="ace recur eps evm 75 percentile" sheetId="13" state="hidden" r:id="rId12"/>
-    <sheet name="ace%10" sheetId="7" state="hidden" r:id="rId13"/>
-    <sheet name="ace%15" sheetId="8" state="hidden" r:id="rId14"/>
-    <sheet name="ace%70 svm" sheetId="2" state="hidden" r:id="rId15"/>
-    <sheet name="ace%80 svm" sheetId="3" state="hidden" r:id="rId16"/>
-    <sheet name="ace80svm" sheetId="4" state="hidden" r:id="rId17"/>
+    <sheet name="comparision" sheetId="18" r:id="rId12"/>
+    <sheet name="ace recur eps evm 75 percentile" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="ace%10" sheetId="7" state="hidden" r:id="rId14"/>
+    <sheet name="ace%15" sheetId="8" state="hidden" r:id="rId15"/>
+    <sheet name="ace%70 svm" sheetId="2" state="hidden" r:id="rId16"/>
+    <sheet name="ace%80 svm" sheetId="3" state="hidden" r:id="rId17"/>
+    <sheet name="ace80svm" sheetId="4" state="hidden" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="74">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -429,6 +429,18 @@
   <si>
     <t>class7</t>
   </si>
+  <si>
+    <t>knee error</t>
+  </si>
+  <si>
+    <t>20% excision</t>
+  </si>
+  <si>
+    <t>knee angle</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
 </sst>
 </file>
 
@@ -437,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,8 +517,15 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,8 +616,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -986,11 +1011,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1279,6 +1319,75 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1585,7 +1694,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1599,12 +1708,12 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2345,18 +2454,18 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.81640625" style="49"/>
+    <col min="1" max="3" width="8.77734375" style="49"/>
     <col min="4" max="4" width="27" style="49" customWidth="1"/>
     <col min="5" max="5" width="26" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="49" customWidth="1"/>
-    <col min="7" max="8" width="8.81640625" style="49"/>
-    <col min="9" max="9" width="10.54296875" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="49" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" style="49"/>
+    <col min="9" max="9" width="10.5546875" style="49" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="49" customWidth="1"/>
     <col min="11" max="11" width="26" style="49" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="49"/>
+    <col min="13" max="16384" width="8.77734375" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1"/>
@@ -2373,7 +2482,7 @@
       </c>
       <c r="K2" s="116"/>
     </row>
-    <row r="3" spans="2:12" ht="14.5" customHeight="1">
+    <row r="3" spans="2:12" ht="14.55" customHeight="1">
       <c r="D3" s="117" t="s">
         <v>38</v>
       </c>
@@ -2399,7 +2508,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.5" customHeight="1">
+    <row r="5" spans="2:12" ht="14.55" customHeight="1">
       <c r="B5" s="111" t="b">
         <v>1</v>
       </c>
@@ -2463,7 +2572,7 @@
       </c>
       <c r="L6" s="114"/>
     </row>
-    <row r="7" spans="2:12" ht="29">
+    <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="61" t="s">
         <v>54</v>
       </c>
@@ -2478,7 +2587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="44" thickBot="1">
+    <row r="8" spans="2:12" ht="43.8" thickBot="1">
       <c r="D8" s="64" t="s">
         <v>56</v>
       </c>
@@ -2748,13 +2857,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B586F451-B7ED-4DDA-BEA7-EED6C5CA40EE}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
@@ -2916,6 +3025,291 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5098F06-A16F-4ADA-89BF-F72428932D91}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1">
+      <c r="C1" s="128" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="129"/>
+      <c r="E1" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="129"/>
+      <c r="G1" s="128" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="129"/>
+      <c r="I1" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="129"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1"/>
+    <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="122"/>
+      <c r="E3" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="122"/>
+      <c r="G3" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="124"/>
+      <c r="I3" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="136"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="137" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="119" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="138">
+        <v>0.92741899999999999</v>
+      </c>
+      <c r="D5" s="139">
+        <v>7.2581000000000007E-2</v>
+      </c>
+      <c r="E5" s="140">
+        <v>0.95723800000000003</v>
+      </c>
+      <c r="F5" s="139">
+        <v>4.2762000000000001E-2</v>
+      </c>
+      <c r="G5" s="140">
+        <v>0.93352000000000002</v>
+      </c>
+      <c r="H5" s="139">
+        <v>6.6479999999999997E-2</v>
+      </c>
+      <c r="I5" s="138">
+        <v>0.93342199999999997</v>
+      </c>
+      <c r="J5" s="139">
+        <v>6.6577999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1">
+      <c r="A6" s="120"/>
+      <c r="B6" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="141">
+        <v>4.2304000000000001E-2</v>
+      </c>
+      <c r="D6" s="142">
+        <v>0.95769599999999999</v>
+      </c>
+      <c r="E6" s="143">
+        <v>6.6102999999999995E-2</v>
+      </c>
+      <c r="F6" s="142">
+        <v>0.93389699999999998</v>
+      </c>
+      <c r="G6" s="143">
+        <v>0.173815</v>
+      </c>
+      <c r="H6" s="142">
+        <v>0.82618499999999995</v>
+      </c>
+      <c r="I6" s="141">
+        <v>0.17402899999999999</v>
+      </c>
+      <c r="J6" s="142">
+        <v>0.82597100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1">
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="O8" s="85"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="144">
+        <v>0.95769599999999999</v>
+      </c>
+      <c r="D9" s="145"/>
+      <c r="E9" s="144">
+        <v>0.93389699999999998</v>
+      </c>
+      <c r="F9" s="145"/>
+      <c r="G9" s="146">
+        <v>0.82618499999999995</v>
+      </c>
+      <c r="H9" s="147"/>
+      <c r="I9" s="146">
+        <v>0.82597100000000001</v>
+      </c>
+      <c r="J9" s="147"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1">
+      <c r="A10" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="89"/>
+      <c r="C10" s="148">
+        <v>7.2581000000000007E-2</v>
+      </c>
+      <c r="D10" s="149"/>
+      <c r="E10" s="148">
+        <v>4.2762000000000001E-2</v>
+      </c>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150">
+        <v>6.6479999999999997E-2</v>
+      </c>
+      <c r="H10" s="151"/>
+      <c r="I10" s="150">
+        <v>6.6577999999999998E-2</v>
+      </c>
+      <c r="J10" s="151"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1">
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1">
+      <c r="A13" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="101"/>
+      <c r="C13" s="132">
+        <v>5.8073E-2</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="132">
+        <v>5.3947000000000002E-2</v>
+      </c>
+      <c r="F13" s="133"/>
+      <c r="G13" s="134">
+        <v>0.10627</v>
+      </c>
+      <c r="H13" s="135"/>
+      <c r="I13" s="134">
+        <v>0.11806800000000001</v>
+      </c>
+      <c r="J13" s="135"/>
+      <c r="L13">
+        <f>(I13-C13)/I13*100</f>
+        <v>50.813937730799211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B7EB0-97FE-4240-A4DE-1E39791B3C3D}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -2923,9 +3317,9 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
@@ -3152,7 +3546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043E0DC0-F016-4AF6-A513-992480384507}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -3160,7 +3554,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -3878,741 +4272,6 @@
       </c>
       <c r="C45" s="4">
         <v>23.809524</v>
-      </c>
-      <c r="D45" s="4">
-        <v>27.36787</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADC542-DE48-4E27-9C80-E62713485DC9}">
-  <dimension ref="A1:K45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="104"/>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.6745159999999999</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.15123</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f>SUM(C3,C12,C21,C30,C39)/5</f>
-        <v>1.8733648000000003</v>
-      </c>
-      <c r="G3" s="8">
-        <f>SUM(D3,D12,D21,D30,D39)/5</f>
-        <v>1.2454212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
-        <v>1.8001047999999997</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4652014000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.831502</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8001048000000002</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9256934000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2.616431</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4.2386189999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.616431</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.2072213999999999</v>
-      </c>
-      <c r="I6">
-        <f>$G6-F6</f>
-        <v>1.5907903999999999</v>
-      </c>
-      <c r="K6">
-        <f>I6/G6*100</f>
-        <v>37.810950476720812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5.5468339999999996</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.7912090000000003</v>
-      </c>
-      <c r="E7" s="10">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>6.3526948000000001</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>8.9900577999999989</v>
-      </c>
-      <c r="I7">
-        <f>$G7-F7</f>
-        <v>2.6373629999999988</v>
-      </c>
-      <c r="K7">
-        <f>I7/G7*100</f>
-        <v>29.336440973716531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4">
-        <v>12.663527</v>
-      </c>
-      <c r="D8" s="4">
-        <v>17.111460000000001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>12.098377800000002</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>17.226582999999998</v>
-      </c>
-      <c r="I8">
-        <f>$G8-F8</f>
-        <v>5.1282051999999965</v>
-      </c>
-      <c r="K8">
-        <f>I8/G8*100</f>
-        <v>29.769137617135083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>21.245421</v>
-      </c>
-      <c r="D9" s="4">
-        <v>26.373626000000002</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>22.574568199999998</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>26.3526946</v>
-      </c>
-      <c r="I9">
-        <f>$G9-F9</f>
-        <v>3.7781264000000014</v>
-      </c>
-      <c r="K9">
-        <f>I9/G9*100</f>
-        <v>14.336774501989643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <f>SUM(I3:I9)/7</f>
-        <v>1.8763549999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2.407117</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.360544</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I5:I7)/3</f>
-        <v>1.4093844666666662</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2.040816</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.51753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1.7791729999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.988488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3.0350600000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4.2909470000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6.4887490000000003</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.5295660000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>13.814757</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18.524332999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4">
-        <v>22.762951000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>25.117739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.622187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2.1978019999999998</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.8838299999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2.2501310000000001</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3.0350600000000001</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.8665620000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6.017792</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9.105181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10.361068</v>
-      </c>
-      <c r="D26" s="4">
-        <v>16.326530999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4">
-        <v>50</v>
-      </c>
-      <c r="C27" s="4">
-        <v>22.448979999999999</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25.013082000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.465201</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.73260099999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4">
-        <v>5</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1.15123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4">
-        <v>20</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2.7734169999999998</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3.1397170000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4">
-        <v>6.227106</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8.2679229999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4">
-        <v>40</v>
-      </c>
-      <c r="C35" s="4">
-        <v>11.616954</v>
-      </c>
-      <c r="D35" s="4">
-        <v>16.902145000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4">
-        <v>50</v>
-      </c>
-      <c r="C36" s="4">
-        <v>23.809524</v>
-      </c>
-      <c r="D36" s="4">
-        <v>27.891155999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1.360544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4">
-        <v>5</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1.5698589999999999</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1.936159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4">
-        <v>20</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1.622187</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4.5002620000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4">
-        <v>7.4829929999999996</v>
-      </c>
-      <c r="D43" s="4">
-        <v>10.256410000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4">
-        <v>12.035583000000001</v>
-      </c>
-      <c r="D44" s="4">
-        <v>17.268446000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4">
-        <v>50</v>
-      </c>
-      <c r="C45" s="4">
-        <v>22.605965000000001</v>
       </c>
       <c r="D45" s="4">
         <v>27.36787</v>
@@ -4627,6 +4286,741 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADC542-DE48-4E27-9C80-E62713485DC9}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="104"/>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.6745159999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.15123</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(C3,C12,C21,C30,C39)/5</f>
+        <v>1.8733648000000003</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(D3,D12,D21,D30,D39)/5</f>
+        <v>1.2454212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
+        <v>1.8001047999999997</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4652014000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.831502</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8001048000000002</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9256934000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.616431</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.616431</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I6">
+        <f>$G6-F6</f>
+        <v>1.5907903999999999</v>
+      </c>
+      <c r="K6">
+        <f>I6/G6*100</f>
+        <v>37.810950476720812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.5468339999999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.7912090000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3526948000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9900577999999989</v>
+      </c>
+      <c r="I7">
+        <f>$G7-F7</f>
+        <v>2.6373629999999988</v>
+      </c>
+      <c r="K7">
+        <f>I7/G7*100</f>
+        <v>29.336440973716531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12.663527</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.111460000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>12.098377800000002</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>17.226582999999998</v>
+      </c>
+      <c r="I8">
+        <f>$G8-F8</f>
+        <v>5.1282051999999965</v>
+      </c>
+      <c r="K8">
+        <f>I8/G8*100</f>
+        <v>29.769137617135083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>21.245421</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26.373626000000002</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>22.574568199999998</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>26.3526946</v>
+      </c>
+      <c r="I9">
+        <f>$G9-F9</f>
+        <v>3.7781264000000014</v>
+      </c>
+      <c r="K9">
+        <f>I9/G9*100</f>
+        <v>14.336774501989643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>1.8763549999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.407117</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.360544</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I5:I7)/3</f>
+        <v>1.4093844666666662</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.040816</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.51753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.7791729999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.988488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.0350600000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.4887490000000003</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.5295660000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13.814757</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18.524332999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>22.762951000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.117739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.622187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2.1978019999999998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8838299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.2501310000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.0350600000000001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.017792</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.105181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10.361068</v>
+      </c>
+      <c r="D26" s="4">
+        <v>16.326530999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>22.448979999999999</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25.013082000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.465201</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.73260099999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.15123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.7734169999999998</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.227106</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8.2679229999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4">
+        <v>11.616954</v>
+      </c>
+      <c r="D35" s="4">
+        <v>16.902145000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>23.809524</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27.891155999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.360544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.5698589999999999</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.936159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.622187</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.5002620000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4">
+        <v>7.4829929999999996</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10.256410000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>12.035583000000001</v>
+      </c>
+      <c r="D44" s="4">
+        <v>17.268446000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>22.605965000000001</v>
+      </c>
+      <c r="D45" s="4">
+        <v>27.36787</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B45D620-F4D9-41D4-9209-FD4CDAC74CC7}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -4634,9 +5028,9 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5137,7 +5531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E60F0C-121E-4CA4-AD01-FA0B3C207F39}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5145,12 +5539,12 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5919,7 +6313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7E4CB-1013-4A61-8F30-D13FBB6C7CB7}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5927,13 +6321,13 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="10.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -6677,12 +7071,12 @@
       <selection activeCell="E5" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7454,10 +7848,10 @@
       <selection activeCell="F6" sqref="F6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8230,10 +8624,10 @@
       <selection activeCell="F6" sqref="F6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="15.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9010,7 +9404,7 @@
       <selection activeCell="F1" sqref="F1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -9245,7 +9639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -9454,10 +9848,10 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
@@ -9696,7 +10090,7 @@
       <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -9934,11 +10328,11 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/mnist_rankfiltering_new.xlsx
+++ b/mnist_rankfiltering_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Mnist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B79C62-9E11-4729-BAB9-3B1EE30E3274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919AAE37-8C60-49A4-8CCA-D1E9DA377D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
   </bookViews>
   <sheets>
     <sheet name="ace85svm" sheetId="5" state="hidden" r:id="rId1"/>
@@ -20,17 +20,19 @@
     <sheet name="ace recur svm 20%" sheetId="10" state="hidden" r:id="rId5"/>
     <sheet name="ace svm 75 percentile" sheetId="11" state="hidden" r:id="rId6"/>
     <sheet name="ace svm 25% " sheetId="12" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" state="hidden" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="15" state="hidden" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="16" r:id="rId10"/>
-    <sheet name="dbscanclust_l1pca" sheetId="17" r:id="rId11"/>
+    <sheet name="dbscanclust_l1pca" sheetId="17" state="hidden" r:id="rId11"/>
     <sheet name="comparision" sheetId="18" r:id="rId12"/>
-    <sheet name="ace recur eps evm 75 percentile" sheetId="13" state="hidden" r:id="rId13"/>
-    <sheet name="ace%10" sheetId="7" state="hidden" r:id="rId14"/>
-    <sheet name="ace%15" sheetId="8" state="hidden" r:id="rId15"/>
-    <sheet name="ace%70 svm" sheetId="2" state="hidden" r:id="rId16"/>
-    <sheet name="ace%80 svm" sheetId="3" state="hidden" r:id="rId17"/>
-    <sheet name="ace80svm" sheetId="4" state="hidden" r:id="rId18"/>
+    <sheet name="20%contamination" sheetId="19" r:id="rId13"/>
+    <sheet name="30%Contamination" sheetId="20" r:id="rId14"/>
+    <sheet name="ace recur eps evm 75 percentile" sheetId="13" state="hidden" r:id="rId15"/>
+    <sheet name="ace%10" sheetId="7" state="hidden" r:id="rId16"/>
+    <sheet name="ace%15" sheetId="8" state="hidden" r:id="rId17"/>
+    <sheet name="ace%70 svm" sheetId="2" state="hidden" r:id="rId18"/>
+    <sheet name="ace%80 svm" sheetId="3" state="hidden" r:id="rId19"/>
+    <sheet name="ace80svm" sheetId="4" state="hidden" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="77">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -441,6 +443,15 @@
   <si>
     <t>Raw</t>
   </si>
+  <si>
+    <t xml:space="preserve">diff </t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>knee opt</t>
+  </si>
 </sst>
 </file>
 
@@ -525,7 +536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +630,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1244,6 +1261,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1319,75 +1382,111 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1694,7 +1793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1721,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="124"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -2472,26 +2571,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="116"/>
+      <c r="E2" s="136"/>
       <c r="F2" s="51"/>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="116"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="118"/>
+      <c r="E3" s="138"/>
       <c r="F3" s="52"/>
-      <c r="J3" s="117" t="s">
+      <c r="J3" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="118"/>
+      <c r="K3" s="138"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="53" t="s">
@@ -2509,7 +2608,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="111" t="b">
+      <c r="B5" s="131" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -2523,10 +2622,10 @@
         <f>D14</f>
         <v>51.2</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="111" t="b">
+      <c r="H5" s="131" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="57" t="s">
@@ -2540,12 +2639,12 @@
         <f>D20</f>
         <v>51.2</v>
       </c>
-      <c r="L5" s="113" t="s">
+      <c r="L5" s="133" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="112"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="60" t="s">
         <v>49</v>
       </c>
@@ -2557,8 +2656,8 @@
         <f>D15</f>
         <v>1838.4</v>
       </c>
-      <c r="F6" s="114"/>
-      <c r="H6" s="112"/>
+      <c r="F6" s="134"/>
+      <c r="H6" s="132"/>
       <c r="I6" s="60" t="s">
         <v>49</v>
       </c>
@@ -2570,7 +2669,7 @@
         <f>D21</f>
         <v>1775.4</v>
       </c>
-      <c r="L6" s="114"/>
+      <c r="L6" s="134"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="61" t="s">
@@ -2867,30 +2966,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
-      <c r="G1" s="125" t="s">
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="G1" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="126"/>
-      <c r="I1" s="127"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="142"/>
       <c r="E3" s="84"/>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="124"/>
+      <c r="I3" s="144"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -2910,7 +3009,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="119" t="b">
+      <c r="A5" s="139" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
@@ -2933,7 +3032,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="120"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
@@ -3026,63 +3125,103 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5098F06-A16F-4ADA-89BF-F72428932D91}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1">
-      <c r="C1" s="128" t="s">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
+      <c r="C1" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="128" t="s">
+      <c r="D1" s="171"/>
+      <c r="E1" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="128" t="s">
+      <c r="F1" s="171"/>
+      <c r="G1" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="129"/>
-      <c r="I1" s="128" t="s">
+      <c r="H1" s="171"/>
+      <c r="I1" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="129"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1"/>
-    <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="J1" s="171"/>
+      <c r="K1" s="170" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="171"/>
+      <c r="N1" s="154" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="155"/>
+      <c r="P1" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="154" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="155"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1">
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="121" t="s">
+      <c r="D3" s="142"/>
+      <c r="E3" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="123" t="s">
+      <c r="F3" s="142"/>
+      <c r="G3" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="123" t="s">
+      <c r="H3" s="144"/>
+      <c r="I3" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="136"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1">
+      <c r="J3" s="172"/>
+      <c r="K3" s="143" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="172"/>
+      <c r="N3" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="157"/>
+      <c r="P3" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="157"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="105" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="77" t="s">
@@ -3100,128 +3239,221 @@
       <c r="I4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="137" t="s">
+      <c r="J4" s="105" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="119" t="b">
+      <c r="K4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="139" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="138">
-        <v>0.92741899999999999</v>
-      </c>
-      <c r="D5" s="139">
-        <v>7.2581000000000007E-2</v>
-      </c>
-      <c r="E5" s="140">
+      <c r="C5" s="106">
+        <v>0.89873000000000003</v>
+      </c>
+      <c r="D5" s="107">
+        <v>0.10127</v>
+      </c>
+      <c r="E5" s="108">
         <v>0.95723800000000003</v>
       </c>
-      <c r="F5" s="139">
+      <c r="F5" s="107">
         <v>4.2762000000000001E-2</v>
       </c>
-      <c r="G5" s="140">
+      <c r="G5" s="108">
         <v>0.93352000000000002</v>
       </c>
-      <c r="H5" s="139">
+      <c r="H5" s="107">
         <v>6.6479999999999997E-2</v>
       </c>
-      <c r="I5" s="138">
+      <c r="I5" s="106">
         <v>0.93342199999999997</v>
       </c>
-      <c r="J5" s="139">
+      <c r="J5" s="107">
         <v>6.6577999999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1">
-      <c r="A6" s="120"/>
+      <c r="K5" s="106">
+        <v>0.93342199999999997</v>
+      </c>
+      <c r="L5" s="107">
+        <v>6.6577999999999998E-2</v>
+      </c>
+      <c r="N5" s="116">
+        <v>0.93558699999999995</v>
+      </c>
+      <c r="O5" s="117">
+        <v>6.4412999999999998E-2</v>
+      </c>
+      <c r="P5" s="116">
+        <v>0.93342199999999997</v>
+      </c>
+      <c r="Q5" s="117">
+        <v>6.6577999999999998E-2</v>
+      </c>
+      <c r="R5" s="116"/>
+      <c r="S5" s="117"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1">
+      <c r="A6" s="140"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="141">
-        <v>4.2304000000000001E-2</v>
-      </c>
-      <c r="D6" s="142">
-        <v>0.95769599999999999</v>
-      </c>
-      <c r="E6" s="143">
+      <c r="C6" s="109">
+        <v>2.6848E-2</v>
+      </c>
+      <c r="D6" s="110">
+        <v>0.97315200000000002</v>
+      </c>
+      <c r="E6" s="111">
         <v>6.6102999999999995E-2</v>
       </c>
-      <c r="F6" s="142">
+      <c r="F6" s="110">
         <v>0.93389699999999998</v>
       </c>
-      <c r="G6" s="143">
+      <c r="G6" s="111">
         <v>0.173815</v>
       </c>
-      <c r="H6" s="142">
+      <c r="H6" s="110">
         <v>0.82618499999999995</v>
       </c>
-      <c r="I6" s="141">
+      <c r="I6" s="109">
         <v>0.17402899999999999</v>
       </c>
-      <c r="J6" s="142">
+      <c r="J6" s="110">
         <v>0.82597100000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1">
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="O8" s="85"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="K6" s="109">
+        <v>0.17402899999999999</v>
+      </c>
+      <c r="L6" s="110">
+        <v>0.82597100000000001</v>
+      </c>
+      <c r="N6" s="118">
+        <v>0.16606099999999999</v>
+      </c>
+      <c r="O6" s="119">
+        <v>0.83393899999999999</v>
+      </c>
+      <c r="P6" s="118">
+        <v>0.17402899999999999</v>
+      </c>
+      <c r="Q6" s="119">
+        <v>0.82597100000000001</v>
+      </c>
+      <c r="R6" s="118"/>
+      <c r="S6" s="119"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickBot="1">
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="92" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="94"/>
-      <c r="C9" s="144">
-        <v>0.95769599999999999</v>
-      </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="144">
+      <c r="C9" s="175">
+        <v>0.97315200000000002</v>
+      </c>
+      <c r="D9" s="176"/>
+      <c r="E9" s="175">
         <v>0.93389699999999998</v>
       </c>
-      <c r="F9" s="145"/>
-      <c r="G9" s="146">
+      <c r="F9" s="176"/>
+      <c r="G9" s="148">
         <v>0.82618499999999995</v>
       </c>
-      <c r="H9" s="147"/>
-      <c r="I9" s="146">
+      <c r="H9" s="149"/>
+      <c r="I9" s="148">
         <v>0.82597100000000001</v>
       </c>
-      <c r="J9" s="147"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1">
+      <c r="J9" s="149"/>
+      <c r="K9" s="148">
+        <v>0.82597100000000001</v>
+      </c>
+      <c r="L9" s="149"/>
+      <c r="N9" s="164">
+        <v>0.83393899999999999</v>
+      </c>
+      <c r="O9" s="165"/>
+      <c r="P9" s="158">
+        <v>0.82597100000000001</v>
+      </c>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="158"/>
+      <c r="S9" s="159"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1">
       <c r="A10" s="93" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="148">
-        <v>7.2581000000000007E-2</v>
-      </c>
-      <c r="D10" s="149"/>
-      <c r="E10" s="148">
+      <c r="C10" s="177">
+        <v>0.10127</v>
+      </c>
+      <c r="D10" s="178"/>
+      <c r="E10" s="177">
         <v>4.2762000000000001E-2</v>
       </c>
-      <c r="F10" s="149"/>
+      <c r="F10" s="178"/>
       <c r="G10" s="150">
         <v>6.6479999999999997E-2</v>
       </c>
@@ -3230,58 +3462,189 @@
         <v>6.6577999999999998E-2</v>
       </c>
       <c r="J10" s="151"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1">
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1">
+      <c r="K10" s="150">
+        <v>6.6577999999999998E-2</v>
+      </c>
+      <c r="L10" s="151"/>
+      <c r="N10" s="166">
+        <v>6.4412999999999998E-2</v>
+      </c>
+      <c r="O10" s="167"/>
+      <c r="P10" s="160">
+        <v>6.6577999999999998E-2</v>
+      </c>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="161"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="121"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="104"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="122"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1">
       <c r="A13" s="100" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="101"/>
-      <c r="C13" s="132">
-        <v>5.8073E-2</v>
-      </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="132">
-        <v>5.3947000000000002E-2</v>
-      </c>
-      <c r="F13" s="133"/>
-      <c r="G13" s="134">
-        <v>0.10627</v>
-      </c>
-      <c r="H13" s="135"/>
-      <c r="I13" s="134">
-        <v>0.11806800000000001</v>
-      </c>
-      <c r="J13" s="135"/>
-      <c r="L13">
-        <f>(I13-C13)/I13*100</f>
-        <v>50.813937730799211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="C13" s="173"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="153"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="163"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="163"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="82"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="112">
+        <v>0.89873000000000003</v>
+      </c>
+      <c r="D15" s="112">
+        <v>0.10127</v>
+      </c>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112">
+        <v>0.93342199999999997</v>
+      </c>
+      <c r="J15" s="112">
+        <v>6.6577999999999998E-2</v>
+      </c>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="N15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="112">
+        <v>2.6848E-2</v>
+      </c>
+      <c r="D16" s="112">
+        <v>0.97315200000000002</v>
+      </c>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112">
+        <v>0.17402899999999999</v>
+      </c>
+      <c r="J16" s="112">
+        <v>0.82597100000000001</v>
+      </c>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="112">
+        <v>0.97315200000000002</v>
+      </c>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112">
+        <v>0.82597100000000001</v>
+      </c>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="112">
+        <v>0.10127</v>
+      </c>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112">
+        <v>6.6577999999999998E-2</v>
+      </c>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="41">
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -3303,6 +3666,26 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P13:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3310,6 +3693,526 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34752D7E-8195-49A1-B7E3-E29B59507B1D}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1">
+      <c r="C1" s="170" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="171"/>
+      <c r="E1" s="170" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="171"/>
+      <c r="G1" s="170" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="171"/>
+      <c r="I1" s="170" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="171"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1"/>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="142"/>
+      <c r="G3" s="143" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="172"/>
+      <c r="I3" s="143" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="172"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="106">
+        <v>0.89873000000000003</v>
+      </c>
+      <c r="D5" s="107">
+        <v>0.10127</v>
+      </c>
+      <c r="E5" s="108">
+        <v>0.95723800000000003</v>
+      </c>
+      <c r="F5" s="107">
+        <v>4.2762000000000001E-2</v>
+      </c>
+      <c r="G5" s="106">
+        <v>0.93342199999999997</v>
+      </c>
+      <c r="H5" s="107">
+        <v>6.6577999999999998E-2</v>
+      </c>
+      <c r="I5" s="106">
+        <v>0.93342199999999997</v>
+      </c>
+      <c r="J5" s="107">
+        <v>6.6577999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
+      <c r="A6" s="140"/>
+      <c r="B6" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="109">
+        <v>2.6848E-2</v>
+      </c>
+      <c r="D6" s="110">
+        <v>0.97315200000000002</v>
+      </c>
+      <c r="E6" s="111">
+        <v>6.6102999999999995E-2</v>
+      </c>
+      <c r="F6" s="110">
+        <v>0.93389699999999998</v>
+      </c>
+      <c r="G6" s="109">
+        <v>0.17402899999999999</v>
+      </c>
+      <c r="H6" s="110">
+        <v>0.82597100000000001</v>
+      </c>
+      <c r="I6" s="109">
+        <v>0.17402899999999999</v>
+      </c>
+      <c r="J6" s="110">
+        <v>0.82597100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1">
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="182"/>
+      <c r="C9" s="175">
+        <v>0.97315200000000002</v>
+      </c>
+      <c r="D9" s="176"/>
+      <c r="E9" s="175">
+        <v>0.93389699999999998</v>
+      </c>
+      <c r="F9" s="176"/>
+      <c r="G9" s="148">
+        <v>0.82597100000000001</v>
+      </c>
+      <c r="H9" s="149"/>
+      <c r="I9" s="148">
+        <v>0.82597100000000001</v>
+      </c>
+      <c r="J9" s="149"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1">
+      <c r="A10" s="179" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="180"/>
+      <c r="C10" s="177">
+        <v>0.10127</v>
+      </c>
+      <c r="D10" s="178"/>
+      <c r="E10" s="177">
+        <v>4.2762000000000001E-2</v>
+      </c>
+      <c r="F10" s="178"/>
+      <c r="G10" s="150">
+        <v>6.6577999999999998E-2</v>
+      </c>
+      <c r="H10" s="151"/>
+      <c r="I10" s="150">
+        <v>6.6577999999999998E-2</v>
+      </c>
+      <c r="J10" s="151"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1">
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200A8B2E-17D5-4F5A-B051-63EF40240809}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1">
+      <c r="C1" s="170" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="171"/>
+      <c r="E1" s="170" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="171"/>
+      <c r="G1" s="170" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="171"/>
+      <c r="I1" s="170" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="171"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1"/>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="142"/>
+      <c r="G3" s="143" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="172"/>
+      <c r="I3" s="143" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="172"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="106">
+        <v>0.89513799999999999</v>
+      </c>
+      <c r="D5" s="107">
+        <v>0.104862</v>
+      </c>
+      <c r="E5" s="108">
+        <v>0.92279299999999997</v>
+      </c>
+      <c r="F5" s="107">
+        <v>7.7206999999999998E-2</v>
+      </c>
+      <c r="G5" s="106">
+        <v>0.88362399999999997</v>
+      </c>
+      <c r="H5" s="107">
+        <v>0.11637599999999999</v>
+      </c>
+      <c r="I5" s="106"/>
+      <c r="J5" s="107"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
+      <c r="A6" s="140"/>
+      <c r="B6" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="109">
+        <v>0.12717899999999999</v>
+      </c>
+      <c r="D6" s="110">
+        <v>0.87282099999999996</v>
+      </c>
+      <c r="E6" s="111">
+        <v>0.21237600000000001</v>
+      </c>
+      <c r="F6" s="110">
+        <v>0.78762399999999999</v>
+      </c>
+      <c r="G6" s="109">
+        <v>0.28805199999999997</v>
+      </c>
+      <c r="H6" s="110">
+        <v>0.71194800000000003</v>
+      </c>
+      <c r="I6" s="109"/>
+      <c r="J6" s="110"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1">
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="175">
+        <v>0.87282099999999996</v>
+      </c>
+      <c r="D9" s="176"/>
+      <c r="E9" s="175">
+        <v>0.78762399999999999</v>
+      </c>
+      <c r="F9" s="176"/>
+      <c r="G9" s="148">
+        <v>0.71194800000000003</v>
+      </c>
+      <c r="H9" s="149"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1">
+      <c r="A10" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="89"/>
+      <c r="C10" s="177">
+        <v>0.104862</v>
+      </c>
+      <c r="D10" s="178"/>
+      <c r="E10" s="177">
+        <v>7.7206999999999998E-2</v>
+      </c>
+      <c r="F10" s="178"/>
+      <c r="G10" s="150">
+        <v>0.11637599999999999</v>
+      </c>
+      <c r="H10" s="151"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1">
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B7EB0-97FE-4240-A4DE-1E39791B3C3D}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -3326,10 +4229,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="109"/>
+      <c r="H1" s="129"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -3546,7 +4449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043E0DC0-F016-4AF6-A513-992480384507}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -3561,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="124"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -4285,7 +5188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADC542-DE48-4E27-9C80-E62713485DC9}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -4304,10 +5207,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="124"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -5020,7 +5923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B45D620-F4D9-41D4-9209-FD4CDAC74CC7}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -5039,10 +5942,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="124"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -5531,7 +6434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E60F0C-121E-4CA4-AD01-FA0B3C207F39}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5552,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="124"/>
       <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
@@ -5863,11 +6766,11 @@
       <c r="D13" s="4">
         <v>1.51753</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3">
@@ -6310,753 +7213,6 @@
     <mergeCell ref="F13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7E4CB-1013-4A61-8F30-D13FBB6C7CB7}">
-  <dimension ref="A1:K45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="104"/>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.7791729999999999</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.15123</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f>SUM(C3,C12,C21,C30,C39)/5</f>
-        <v>1.9152277999999998</v>
-      </c>
-      <c r="G3" s="8">
-        <f>SUM(D3,D12,D21,D30,D39)/5</f>
-        <v>1.2454212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.622187</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.308216</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
-        <v>1.7582418</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4652014000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.6745159999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="14">
-        <f t="shared" si="0"/>
-        <v>1.8210362</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9256934000000001</v>
-      </c>
-      <c r="I5">
-        <f>$G5-F5</f>
-        <v>0.10465720000000012</v>
-      </c>
-      <c r="K5">
-        <f>I5/G5*100</f>
-        <v>5.4347800122283285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2.3547880000000001</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4.2386189999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.5327053999999998</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.2072213999999999</v>
-      </c>
-      <c r="I6">
-        <f>$G6-F6</f>
-        <v>1.6745160000000001</v>
-      </c>
-      <c r="K6">
-        <f>I6/G6*100</f>
-        <v>39.800995497883711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5.651491</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.7912090000000003</v>
-      </c>
-      <c r="E7" s="10">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>6.0805859999999994</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>8.9900577999999989</v>
-      </c>
-      <c r="I7">
-        <f>$G7-F7</f>
-        <v>2.9094717999999995</v>
-      </c>
-      <c r="K7">
-        <f>I7/G7*100</f>
-        <v>32.363215729269278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10.256410000000001</v>
-      </c>
-      <c r="D8" s="4">
-        <v>17.111460000000001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>10.790162</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>17.226582999999998</v>
-      </c>
-      <c r="I8">
-        <f>$G8-F8</f>
-        <v>6.4364209999999975</v>
-      </c>
-      <c r="K8">
-        <f>I8/G8*100</f>
-        <v>37.363306466523269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>19.518577000000001</v>
-      </c>
-      <c r="D9" s="4">
-        <v>26.373626000000002</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>20.554683600000001</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>26.3526946</v>
-      </c>
-      <c r="I9">
-        <f>$G9-F9</f>
-        <v>5.7980109999999989</v>
-      </c>
-      <c r="K9">
-        <f>I9/G9*100</f>
-        <v>22.001586888955178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <f>SUM(I3:I9)/7</f>
-        <v>2.417582428571428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2.407117</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.360544</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I5:I7)/3</f>
-        <v>1.5628816666666665</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.51753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.988488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2.8780739999999998</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4.2909470000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6.017792</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.5295660000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>11.616954</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18.524332999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4">
-        <v>20.931450000000002</v>
-      </c>
-      <c r="D18" s="4">
-        <v>25.117739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2.2501310000000001</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.622187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1.988488</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.8838299999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2.1454740000000001</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.0931449999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3.2443749999999998</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.8665620000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6.2794350000000003</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9.105181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10.413396000000001</v>
-      </c>
-      <c r="D26" s="4">
-        <v>16.326530999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4">
-        <v>50</v>
-      </c>
-      <c r="C27" s="4">
-        <v>19.152276000000001</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25.013082000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.412873</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.73260099999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4">
-        <v>5</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1.360544</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1.15123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1.622187</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4">
-        <v>20</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2.1978019999999998</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3.1397170000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5.651491</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8.2679229999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4">
-        <v>40</v>
-      </c>
-      <c r="C35" s="4">
-        <v>10.256410000000001</v>
-      </c>
-      <c r="D35" s="4">
-        <v>16.902145000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4">
-        <v>50</v>
-      </c>
-      <c r="C36" s="4">
-        <v>21.454736</v>
-      </c>
-      <c r="D36" s="4">
-        <v>27.891155999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.726845</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1.360544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4">
-        <v>5</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1.6745159999999999</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1.465201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1.51753</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1.936159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4">
-        <v>20</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1.988488</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4.5002620000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4">
-        <v>6.802721</v>
-      </c>
-      <c r="D43" s="4">
-        <v>10.256410000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4">
-        <v>11.407640000000001</v>
-      </c>
-      <c r="D44" s="4">
-        <v>17.268446000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4">
-        <v>50</v>
-      </c>
-      <c r="C45" s="4">
-        <v>21.716379</v>
-      </c>
-      <c r="D45" s="4">
-        <v>27.36787</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7084,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="124"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -7394,13 +7550,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -7831,6 +7987,753 @@
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="E14:I14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7E4CB-1013-4A61-8F30-D13FBB6C7CB7}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="124"/>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.7791729999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.15123</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(C3,C12,C21,C30,C39)/5</f>
+        <v>1.9152277999999998</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(D3,D12,D21,D30,D39)/5</f>
+        <v>1.2454212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.622187</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.308216</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:G9" si="0">SUM(C4,C13,C22,C31,C40)/5</f>
+        <v>1.7582418</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4652014000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.6745159999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8210362</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9256934000000001</v>
+      </c>
+      <c r="I5">
+        <f>$G5-F5</f>
+        <v>0.10465720000000012</v>
+      </c>
+      <c r="K5">
+        <f>I5/G5*100</f>
+        <v>5.4347800122283285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.3547880000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2386189999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.5327053999999998</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2072213999999999</v>
+      </c>
+      <c r="I6">
+        <f>$G6-F6</f>
+        <v>1.6745160000000001</v>
+      </c>
+      <c r="K6">
+        <f>I6/G6*100</f>
+        <v>39.800995497883711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.651491</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.7912090000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>6.0805859999999994</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9900577999999989</v>
+      </c>
+      <c r="I7">
+        <f>$G7-F7</f>
+        <v>2.9094717999999995</v>
+      </c>
+      <c r="K7">
+        <f>I7/G7*100</f>
+        <v>32.363215729269278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10.256410000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.111460000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>10.790162</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>17.226582999999998</v>
+      </c>
+      <c r="I8">
+        <f>$G8-F8</f>
+        <v>6.4364209999999975</v>
+      </c>
+      <c r="K8">
+        <f>I8/G8*100</f>
+        <v>37.363306466523269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>19.518577000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26.373626000000002</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>20.554683600000001</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>26.3526946</v>
+      </c>
+      <c r="I9">
+        <f>$G9-F9</f>
+        <v>5.7980109999999989</v>
+      </c>
+      <c r="K9">
+        <f>I9/G9*100</f>
+        <v>22.001586888955178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I3:I9)/7</f>
+        <v>2.417582428571428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.407117</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.360544</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I5:I7)/3</f>
+        <v>1.5628816666666665</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.51753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.988488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.8780739999999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2909470000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.017792</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.5295660000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>11.616954</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18.524332999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>20.931450000000002</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.117739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.2501310000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.622187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.988488</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8838299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.1454740000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0931449999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.2443749999999998</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.8665620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.2794350000000003</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.105181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10.413396000000001</v>
+      </c>
+      <c r="D26" s="4">
+        <v>16.326530999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>19.152276000000001</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25.013082000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.412873</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.73260099999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.360544</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.15123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1.622187</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.1978019999999998</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.1397170000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5.651491</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8.2679229999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4">
+        <v>10.256410000000001</v>
+      </c>
+      <c r="D35" s="4">
+        <v>16.902145000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>21.454736</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27.891155999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.726845</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.360544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.6745159999999999</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.465201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.51753</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.936159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.988488</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.5002620000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4">
+        <v>6.802721</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10.256410000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>11.407640000000001</v>
+      </c>
+      <c r="D44" s="4">
+        <v>17.268446000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>21.716379</v>
+      </c>
+      <c r="D45" s="4">
+        <v>27.36787</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7859,10 +8762,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="124"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -8169,13 +9072,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -8635,10 +9538,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="124"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -8949,13 +9852,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -9858,10 +10761,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="109"/>
+      <c r="H1" s="129"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -10096,10 +10999,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="109"/>
+      <c r="H1" s="129"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -10338,10 +11241,10 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="46"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="110"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="3:6">

--- a/mnist_rankfiltering_new.xlsx
+++ b/mnist_rankfiltering_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Mnist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919AAE37-8C60-49A4-8CCA-D1E9DA377D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBDBD96-E0F3-4A89-8027-BF05215EA74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
   </bookViews>
@@ -3697,7 +3697,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3965,11 +3965,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200A8B2E-17D5-4F5A-B051-63EF40240809}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="C1" s="170" t="s">
@@ -4113,10 +4116,10 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="94"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="175">
         <v>0.87282099999999996</v>
       </c>
@@ -4133,10 +4136,10 @@
       <c r="J9" s="149"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="89"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="177">
         <v>0.104862</v>
       </c>
@@ -4185,7 +4188,7 @@
       <c r="J13" s="153"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -4199,6 +4202,8 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>

--- a/mnist_rankfiltering_new.xlsx
+++ b/mnist_rankfiltering_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Mnist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBDBD96-E0F3-4A89-8027-BF05215EA74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D90C3DF-F584-4C89-8EBA-B99C465C43D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
   </bookViews>
   <sheets>
     <sheet name="ace85svm" sheetId="5" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Sheet2" sheetId="15" state="hidden" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="16" r:id="rId10"/>
     <sheet name="dbscanclust_l1pca" sheetId="17" state="hidden" r:id="rId11"/>
-    <sheet name="comparision" sheetId="18" r:id="rId12"/>
+    <sheet name="0%" sheetId="18" r:id="rId12"/>
     <sheet name="20%contamination" sheetId="19" r:id="rId13"/>
     <sheet name="30%Contamination" sheetId="20" r:id="rId14"/>
     <sheet name="ace recur eps evm 75 percentile" sheetId="13" state="hidden" r:id="rId15"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="80">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -444,13 +444,22 @@
     <t>Raw</t>
   </si>
   <si>
-    <t xml:space="preserve">diff </t>
-  </si>
-  <si>
     <t>opt</t>
   </si>
   <si>
     <t>knee opt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l1 knee error</t>
+  </si>
+  <si>
+    <t>l1 20% excision</t>
+  </si>
+  <si>
+    <t>l1 Raw</t>
+  </si>
+  <si>
+    <t>knee optrank angle</t>
   </si>
 </sst>
 </file>
@@ -640,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1043,11 +1052,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1305,8 +1353,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1382,23 +1428,50 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1424,12 +1497,6 @@
     <xf numFmtId="2" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,39 +1509,6 @@
     <xf numFmtId="2" fontId="5" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1486,6 +1520,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1820,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="122"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -2571,26 +2617,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="136"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="51"/>
-      <c r="J2" s="135" t="s">
+      <c r="J2" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="136"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="138"/>
+      <c r="E3" s="136"/>
       <c r="F3" s="52"/>
-      <c r="J3" s="137" t="s">
+      <c r="J3" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="138"/>
+      <c r="K3" s="136"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="53" t="s">
@@ -2608,7 +2654,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="131" t="b">
+      <c r="B5" s="129" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -2622,10 +2668,10 @@
         <f>D14</f>
         <v>51.2</v>
       </c>
-      <c r="F5" s="133" t="s">
+      <c r="F5" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="131" t="b">
+      <c r="H5" s="129" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="57" t="s">
@@ -2639,12 +2685,12 @@
         <f>D20</f>
         <v>51.2</v>
       </c>
-      <c r="L5" s="133" t="s">
+      <c r="L5" s="131" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="132"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="60" t="s">
         <v>49</v>
       </c>
@@ -2656,8 +2702,8 @@
         <f>D15</f>
         <v>1838.4</v>
       </c>
-      <c r="F6" s="134"/>
-      <c r="H6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="H6" s="130"/>
       <c r="I6" s="60" t="s">
         <v>49</v>
       </c>
@@ -2669,7 +2715,7 @@
         <f>D21</f>
         <v>1775.4</v>
       </c>
-      <c r="L6" s="134"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="61" t="s">
@@ -2966,30 +3012,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="G1" s="145" t="s">
+      <c r="C1" s="144"/>
+      <c r="D1" s="145"/>
+      <c r="G1" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="145"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="142"/>
+      <c r="D3" s="140"/>
       <c r="E3" s="84"/>
-      <c r="H3" s="143" t="s">
+      <c r="H3" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="144"/>
+      <c r="I3" s="142"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -3009,7 +3055,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="139" t="b">
+      <c r="A5" s="137" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
@@ -3032,7 +3078,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="140"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
@@ -3125,10 +3171,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5098F06-A16F-4ADA-89BF-F72428932D91}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3138,38 +3184,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="158" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="159"/>
+      <c r="E1" s="158" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="159"/>
+      <c r="G1" s="158" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="159"/>
+      <c r="I1" s="158" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="159"/>
+      <c r="K1" s="158" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="159"/>
+      <c r="N1" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="171"/>
-      <c r="E1" s="170" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="171"/>
-      <c r="G1" s="170" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="170" t="s">
+      <c r="O1" s="162"/>
+      <c r="P1" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="171"/>
-      <c r="K1" s="170" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="171"/>
-      <c r="N1" s="154" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="155"/>
-      <c r="P1" s="154" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="154" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="155"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="162"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="N2" s="113"/>
@@ -3182,38 +3228,38 @@
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="141" t="s">
+      <c r="D3" s="140"/>
+      <c r="E3" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="140"/>
+      <c r="G3" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="143" t="s">
+      <c r="H3" s="142"/>
+      <c r="I3" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="143" t="s">
+      <c r="J3" s="160"/>
+      <c r="K3" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="172"/>
-      <c r="N3" s="156" t="s">
+      <c r="L3" s="160"/>
+      <c r="N3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="157"/>
-      <c r="P3" s="156" t="s">
+      <c r="O3" s="164"/>
+      <c r="P3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="156" t="s">
+      <c r="Q3" s="164"/>
+      <c r="R3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="157"/>
+      <c r="S3" s="164"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -3242,10 +3288,10 @@
       <c r="J4" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="105" t="s">
+      <c r="L4" s="180" t="s">
         <v>69</v>
       </c>
       <c r="N4" s="114" t="s">
@@ -3268,23 +3314,23 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="139" t="b">
+      <c r="A5" s="137" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="106">
-        <v>0.89873000000000003</v>
+        <v>0.98873100000000003</v>
       </c>
       <c r="D5" s="107">
-        <v>0.10127</v>
+        <v>1.1269E-2</v>
       </c>
       <c r="E5" s="108">
-        <v>0.95723800000000003</v>
+        <v>0.99079799999999996</v>
       </c>
       <c r="F5" s="107">
-        <v>4.2762000000000001E-2</v>
+        <v>9.2020000000000001E-3</v>
       </c>
       <c r="G5" s="108">
         <v>0.93352000000000002</v>
@@ -3293,16 +3339,16 @@
         <v>6.6479999999999997E-2</v>
       </c>
       <c r="I5" s="106">
-        <v>0.93342199999999997</v>
-      </c>
-      <c r="J5" s="107">
-        <v>6.6577999999999998E-2</v>
+        <v>0.99473500000000004</v>
+      </c>
+      <c r="J5" s="177">
+        <v>5.2649999999999997E-3</v>
       </c>
       <c r="K5" s="106">
-        <v>0.93342199999999997</v>
+        <v>0.989371</v>
       </c>
       <c r="L5" s="107">
-        <v>6.6577999999999998E-2</v>
+        <v>1.0629E-2</v>
       </c>
       <c r="N5" s="116">
         <v>0.93558699999999995</v>
@@ -3320,21 +3366,21 @@
       <c r="S5" s="117"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="140"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="109">
-        <v>2.6848E-2</v>
+        <v>2.2088E-2</v>
       </c>
       <c r="D6" s="110">
-        <v>0.97315200000000002</v>
+        <v>0.977912</v>
       </c>
       <c r="E6" s="111">
-        <v>6.6102999999999995E-2</v>
+        <v>2.5028999999999999E-2</v>
       </c>
       <c r="F6" s="110">
-        <v>0.93389699999999998</v>
+        <v>0.97497100000000003</v>
       </c>
       <c r="G6" s="111">
         <v>0.173815</v>
@@ -3343,16 +3389,16 @@
         <v>0.82618499999999995</v>
       </c>
       <c r="I6" s="109">
-        <v>0.17402899999999999</v>
-      </c>
-      <c r="J6" s="110">
-        <v>0.82597100000000001</v>
+        <v>2.7328999999999999E-2</v>
+      </c>
+      <c r="J6" s="178">
+        <v>0.97267099999999995</v>
       </c>
       <c r="K6" s="109">
-        <v>0.17402899999999999</v>
+        <v>2.2568999999999999E-2</v>
       </c>
       <c r="L6" s="110">
-        <v>0.82597100000000001</v>
+        <v>0.97743100000000005</v>
       </c>
       <c r="N6" s="118">
         <v>0.16606099999999999</v>
@@ -3410,245 +3456,164 @@
         <v>65</v>
       </c>
       <c r="B9" s="94"/>
-      <c r="C9" s="175">
-        <v>0.97315200000000002</v>
-      </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="175">
-        <v>0.93389699999999998</v>
-      </c>
-      <c r="F9" s="176"/>
-      <c r="G9" s="148">
+      <c r="C9" s="150">
+        <v>0.977912</v>
+      </c>
+      <c r="D9" s="151"/>
+      <c r="E9" s="150">
+        <v>0.97497100000000003</v>
+      </c>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152">
         <v>0.82618499999999995</v>
       </c>
-      <c r="H9" s="149"/>
-      <c r="I9" s="148">
+      <c r="H9" s="153"/>
+      <c r="I9" s="152">
+        <v>0.97267099999999995</v>
+      </c>
+      <c r="J9" s="153"/>
+      <c r="K9" s="152">
+        <v>0.97743100000000005</v>
+      </c>
+      <c r="L9" s="153"/>
+      <c r="N9" s="169">
+        <v>0.83393899999999999</v>
+      </c>
+      <c r="O9" s="170"/>
+      <c r="P9" s="165">
         <v>0.82597100000000001</v>
       </c>
-      <c r="J9" s="149"/>
-      <c r="K9" s="148">
-        <v>0.82597100000000001</v>
-      </c>
-      <c r="L9" s="149"/>
-      <c r="N9" s="164">
-        <v>0.83393899999999999</v>
-      </c>
-      <c r="O9" s="165"/>
-      <c r="P9" s="158">
-        <v>0.82597100000000001</v>
-      </c>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="159"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="165"/>
+      <c r="S9" s="166"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1">
       <c r="A10" s="93" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="177">
-        <v>0.10127</v>
-      </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="177">
-        <v>4.2762000000000001E-2</v>
-      </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="150">
+      <c r="C10" s="154">
+        <v>1.1269E-2</v>
+      </c>
+      <c r="D10" s="155"/>
+      <c r="E10" s="154">
+        <v>9.2020000000000001E-3</v>
+      </c>
+      <c r="F10" s="155"/>
+      <c r="G10" s="156">
         <v>6.6479999999999997E-2</v>
       </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="150">
+      <c r="H10" s="157"/>
+      <c r="I10" s="156">
+        <v>5.2649999999999997E-3</v>
+      </c>
+      <c r="J10" s="157"/>
+      <c r="K10" s="156">
+        <v>1.0629E-2</v>
+      </c>
+      <c r="L10" s="157"/>
+      <c r="N10" s="171">
+        <v>6.4412999999999998E-2</v>
+      </c>
+      <c r="O10" s="172"/>
+      <c r="P10" s="167">
         <v>6.6577999999999998E-2</v>
       </c>
-      <c r="J10" s="151"/>
-      <c r="K10" s="150">
-        <v>6.6577999999999998E-2</v>
-      </c>
-      <c r="L10" s="151"/>
-      <c r="N10" s="166">
-        <v>6.4412999999999998E-2</v>
-      </c>
-      <c r="O10" s="167"/>
-      <c r="P10" s="160">
-        <v>6.6577999999999998E-2</v>
-      </c>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="161"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="168"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="121"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1">
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="104"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="122"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1">
-      <c r="A13" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="153"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="163"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="82"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="C15" s="112">
-        <v>0.89873000000000003</v>
-      </c>
-      <c r="D15" s="112">
-        <v>0.10127</v>
-      </c>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1">
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="112"/>
       <c r="F15" s="112"/>
       <c r="G15" s="112"/>
       <c r="H15" s="112"/>
-      <c r="I15" s="112">
-        <v>0.93342199999999997</v>
-      </c>
-      <c r="J15" s="112">
-        <v>6.6577999999999998E-2</v>
-      </c>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
       <c r="K15" s="112"/>
       <c r="L15" s="112"/>
-      <c r="N15" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="112">
-        <v>2.6848E-2</v>
-      </c>
-      <c r="D16" s="112">
-        <v>0.97315200000000002</v>
-      </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112">
-        <v>0.17402899999999999</v>
-      </c>
-      <c r="J16" s="112">
-        <v>0.82597100000000001</v>
-      </c>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="112">
-        <v>0.97315200000000002</v>
-      </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112">
-        <v>0.82597100000000001</v>
-      </c>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="112">
-        <v>0.10127</v>
-      </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112">
-        <v>6.6577999999999998E-2</v>
-      </c>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
+  <mergeCells count="33">
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
@@ -3657,35 +3622,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P13:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3706,43 +3642,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="171"/>
-      <c r="E1" s="170" t="s">
+      <c r="D1" s="159"/>
+      <c r="E1" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="171"/>
-      <c r="G1" s="170" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="170" t="s">
+      <c r="F1" s="159"/>
+      <c r="G1" s="158" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="159"/>
+      <c r="I1" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="171"/>
+      <c r="J1" s="159"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1"/>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="141" t="s">
+      <c r="D3" s="140"/>
+      <c r="E3" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="140"/>
+      <c r="G3" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="143" t="s">
+      <c r="H3" s="160"/>
+      <c r="I3" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="172"/>
+      <c r="J3" s="160"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -3773,7 +3709,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="139" t="b">
+      <c r="A5" s="137" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
@@ -3805,7 +3741,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="140"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
@@ -3855,48 +3791,48 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="175">
+      <c r="B9" s="176"/>
+      <c r="C9" s="150">
         <v>0.97315200000000002</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="175">
+      <c r="D9" s="151"/>
+      <c r="E9" s="150">
         <v>0.93389699999999998</v>
       </c>
-      <c r="F9" s="176"/>
-      <c r="G9" s="148">
+      <c r="F9" s="151"/>
+      <c r="G9" s="152">
         <v>0.82597100000000001</v>
       </c>
-      <c r="H9" s="149"/>
-      <c r="I9" s="148">
+      <c r="H9" s="153"/>
+      <c r="I9" s="152">
         <v>0.82597100000000001</v>
       </c>
-      <c r="J9" s="149"/>
+      <c r="J9" s="153"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="177">
+      <c r="B10" s="174"/>
+      <c r="C10" s="154">
         <v>0.10127</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="177">
+      <c r="D10" s="155"/>
+      <c r="E10" s="154">
         <v>4.2762000000000001E-2</v>
       </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="150">
+      <c r="F10" s="155"/>
+      <c r="G10" s="156">
         <v>6.6577999999999998E-2</v>
       </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="150">
+      <c r="H10" s="157"/>
+      <c r="I10" s="156">
         <v>6.6577999999999998E-2</v>
       </c>
-      <c r="J10" s="151"/>
+      <c r="J10" s="157"/>
     </row>
     <row r="11" spans="1:10">
       <c r="C11" s="103"/>
@@ -3921,22 +3857,25 @@
     <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="I13:J13"/>
@@ -3947,14 +3886,11 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3965,7 +3901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200A8B2E-17D5-4F5A-B051-63EF40240809}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
@@ -3975,43 +3911,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="171"/>
-      <c r="E1" s="170" t="s">
+      <c r="D1" s="159"/>
+      <c r="E1" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="171"/>
-      <c r="G1" s="170" t="s">
+      <c r="F1" s="159"/>
+      <c r="G1" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="170" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="171"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="158" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="159"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1"/>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="141" t="s">
+      <c r="D3" s="140"/>
+      <c r="E3" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="140"/>
+      <c r="G3" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="143" t="s">
+      <c r="H3" s="160"/>
+      <c r="I3" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="172"/>
+      <c r="J3" s="160"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -4042,7 +3978,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="139" t="b">
+      <c r="A5" s="137" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
@@ -4070,7 +4006,7 @@
       <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="140"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
@@ -4116,44 +4052,44 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="175">
+      <c r="B9" s="176"/>
+      <c r="C9" s="150">
         <v>0.87282099999999996</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="175">
+      <c r="D9" s="151"/>
+      <c r="E9" s="150">
         <v>0.78762399999999999</v>
       </c>
-      <c r="F9" s="176"/>
-      <c r="G9" s="148">
+      <c r="F9" s="151"/>
+      <c r="G9" s="152">
         <v>0.71194800000000003</v>
       </c>
-      <c r="H9" s="149"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="153"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="177">
+      <c r="B10" s="174"/>
+      <c r="C10" s="154">
         <v>0.104862</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="177">
+      <c r="D10" s="155"/>
+      <c r="E10" s="154">
         <v>7.7206999999999998E-2</v>
       </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="150">
+      <c r="F10" s="155"/>
+      <c r="G10" s="156">
         <v>0.11637599999999999</v>
       </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="151"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="157"/>
     </row>
     <row r="11" spans="1:10">
       <c r="C11" s="103"/>
@@ -4178,17 +4114,25 @@
     <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -4204,14 +4148,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4234,10 +4170,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="129"/>
+      <c r="H1" s="127"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -4469,10 +4405,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="122"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -5212,10 +5148,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="122"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -5947,10 +5883,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="122"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -6460,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="122"/>
       <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6771,11 +6707,11 @@
       <c r="D13" s="4">
         <v>1.51753</v>
       </c>
-      <c r="F13" s="125"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="125"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3">
@@ -7245,10 +7181,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="122"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -7555,13 +7491,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="125" t="s">
+      <c r="E14" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -8020,10 +7956,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="122"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -8767,10 +8703,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="122"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -9077,13 +9013,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="125" t="s">
+      <c r="E14" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -9543,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="122"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -9857,13 +9793,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="125" t="s">
+      <c r="E14" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -10766,10 +10702,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="129"/>
+      <c r="H1" s="127"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -11004,10 +10940,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="129"/>
+      <c r="H1" s="127"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -11246,10 +11182,10 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="46"/>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="130"/>
+      <c r="E2" s="128"/>
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="3:6">

--- a/mnist_rankfiltering_new.xlsx
+++ b/mnist_rankfiltering_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Mnist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D90C3DF-F584-4C89-8EBA-B99C465C43D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D13029-4873-4892-A0CF-0B6B936DAE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
   </bookViews>
   <sheets>
     <sheet name="ace85svm" sheetId="5" state="hidden" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="ace80svm" sheetId="4" state="hidden" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="89">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -435,9 +436,6 @@
     <t>knee error</t>
   </si>
   <si>
-    <t>20% excision</t>
-  </si>
-  <si>
     <t>knee angle</t>
   </si>
   <si>
@@ -447,19 +445,273 @@
     <t>opt</t>
   </si>
   <si>
-    <t>knee opt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> l1 knee error</t>
-  </si>
-  <si>
     <t>l1 20% excision</t>
   </si>
   <si>
-    <t>l1 Raw</t>
+    <t>knee optrank angle</t>
   </si>
   <si>
-    <t>knee optrank angle</t>
+    <t>l1 knee error</t>
+  </si>
+  <si>
+    <t>10,0.01</t>
+  </si>
+  <si>
+    <r>
+      <t>"poly"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, gamma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>1,0.1</t>
+  </si>
+  <si>
+    <t>poly</t>
+  </si>
+  <si>
+    <t>L1 -rank 1 knee (line fit error)</t>
+  </si>
+  <si>
+    <t>L1 rank 1 20% excision</t>
+  </si>
+  <si>
+    <t>knee error + opt rank (1 to 3) using angle</t>
+  </si>
+  <si>
+    <t>Raw Data</t>
+  </si>
+  <si>
+    <r>
+      <t>"poly"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, gamma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> ,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>poly,deg 3, 0.01,1</t>
+  </si>
+  <si>
+    <r>
+      <t>kernel=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"poly"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, degree=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, gamma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kernel=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"poly"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,degree=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, gamma=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> ,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, random_state=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF098156"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -469,7 +721,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +792,32 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA31515"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF098156"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1095,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1353,6 +1631,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1428,6 +1721,69 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1440,74 +1796,11 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1515,22 +1808,70 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1866,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="122"/>
+      <c r="G1" s="127"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -2617,26 +2958,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="134"/>
+      <c r="E2" s="139"/>
       <c r="F2" s="51"/>
-      <c r="J2" s="133" t="s">
+      <c r="J2" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="134"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="135" t="s">
+      <c r="D3" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="136"/>
+      <c r="E3" s="141"/>
       <c r="F3" s="52"/>
-      <c r="J3" s="135" t="s">
+      <c r="J3" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="136"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="53" t="s">
@@ -2654,7 +2995,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="129" t="b">
+      <c r="B5" s="134" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -2668,10 +3009,10 @@
         <f>D14</f>
         <v>51.2</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="129" t="b">
+      <c r="H5" s="134" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="57" t="s">
@@ -2685,12 +3026,12 @@
         <f>D20</f>
         <v>51.2</v>
       </c>
-      <c r="L5" s="131" t="s">
+      <c r="L5" s="136" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="130"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="60" t="s">
         <v>49</v>
       </c>
@@ -2702,8 +3043,8 @@
         <f>D15</f>
         <v>1838.4</v>
       </c>
-      <c r="F6" s="132"/>
-      <c r="H6" s="130"/>
+      <c r="F6" s="137"/>
+      <c r="H6" s="135"/>
       <c r="I6" s="60" t="s">
         <v>49</v>
       </c>
@@ -2715,7 +3056,7 @@
         <f>D21</f>
         <v>1775.4</v>
       </c>
-      <c r="L6" s="132"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="61" t="s">
@@ -3012,30 +3353,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="145"/>
-      <c r="G1" s="143" t="s">
+      <c r="C1" s="149"/>
+      <c r="D1" s="150"/>
+      <c r="G1" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="144"/>
-      <c r="I1" s="145"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="140"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="84"/>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="142"/>
+      <c r="I3" s="147"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -3055,7 +3396,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="137" t="b">
+      <c r="A5" s="142" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
@@ -3078,7 +3419,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="138"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
@@ -3173,49 +3514,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5098F06-A16F-4ADA-89BF-F72428932D91}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="C1" s="158" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="159"/>
-      <c r="E1" s="158" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="159"/>
-      <c r="G1" s="158" t="s">
+    <row r="1" spans="1:19" s="183" customFormat="1" ht="15" thickBot="1">
+      <c r="C1" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="185"/>
+      <c r="E1" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="185"/>
+      <c r="G1" s="184" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="185"/>
+      <c r="I1" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="185"/>
+      <c r="K1" s="184" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="185"/>
+      <c r="N1" s="186" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="187"/>
+      <c r="P1" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="159"/>
-      <c r="I1" s="158" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="159"/>
-      <c r="K1" s="158" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="159"/>
-      <c r="N1" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="162"/>
-      <c r="P1" s="161" t="s">
+      <c r="Q1" s="187"/>
+      <c r="R1" s="186" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="161" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="162"/>
+      <c r="S1" s="187"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="N2" s="113"/>
@@ -3228,38 +3574,38 @@
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="139" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="142"/>
-      <c r="I3" s="141" t="s">
+      <c r="H3" s="147"/>
+      <c r="I3" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="160"/>
-      <c r="K3" s="141" t="s">
+      <c r="J3" s="161"/>
+      <c r="K3" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="160"/>
-      <c r="N3" s="163" t="s">
+      <c r="L3" s="161"/>
+      <c r="N3" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="164"/>
-      <c r="P3" s="163" t="s">
+      <c r="O3" s="163"/>
+      <c r="P3" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="163" t="s">
+      <c r="Q3" s="163"/>
+      <c r="R3" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="164"/>
+      <c r="S3" s="163"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -3282,16 +3628,16 @@
       <c r="H4" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="179" t="s">
+      <c r="K4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="180" t="s">
+      <c r="L4" s="105" t="s">
         <v>69</v>
       </c>
       <c r="N4" s="114" t="s">
@@ -3314,7 +3660,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="137" t="b">
+      <c r="A5" s="142" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
@@ -3339,16 +3685,16 @@
         <v>6.6479999999999997E-2</v>
       </c>
       <c r="I5" s="106">
+        <v>0.989371</v>
+      </c>
+      <c r="J5" s="107">
+        <v>1.0629E-2</v>
+      </c>
+      <c r="K5" s="106">
         <v>0.99473500000000004</v>
       </c>
-      <c r="J5" s="177">
+      <c r="L5" s="121">
         <v>5.2649999999999997E-3</v>
-      </c>
-      <c r="K5" s="106">
-        <v>0.989371</v>
-      </c>
-      <c r="L5" s="107">
-        <v>1.0629E-2</v>
       </c>
       <c r="N5" s="116">
         <v>0.93558699999999995</v>
@@ -3366,7 +3712,7 @@
       <c r="S5" s="117"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="138"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
@@ -3389,16 +3735,16 @@
         <v>0.82618499999999995</v>
       </c>
       <c r="I6" s="109">
+        <v>2.2568999999999999E-2</v>
+      </c>
+      <c r="J6" s="110">
+        <v>0.97743100000000005</v>
+      </c>
+      <c r="K6" s="109">
         <v>2.7328999999999999E-2</v>
       </c>
-      <c r="J6" s="178">
+      <c r="L6" s="122">
         <v>0.97267099999999995</v>
-      </c>
-      <c r="K6" s="109">
-        <v>2.2568999999999999E-2</v>
-      </c>
-      <c r="L6" s="110">
-        <v>0.97743100000000005</v>
       </c>
       <c r="N6" s="118">
         <v>0.16606099999999999</v>
@@ -3456,72 +3802,72 @@
         <v>65</v>
       </c>
       <c r="B9" s="94"/>
-      <c r="C9" s="150">
+      <c r="C9" s="151">
         <v>0.977912</v>
       </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="150">
+      <c r="D9" s="152"/>
+      <c r="E9" s="151">
         <v>0.97497100000000003</v>
       </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152">
+      <c r="F9" s="152"/>
+      <c r="G9" s="153">
         <v>0.82618499999999995</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="152">
+      <c r="H9" s="154"/>
+      <c r="I9" s="153">
+        <v>0.97743100000000005</v>
+      </c>
+      <c r="J9" s="154"/>
+      <c r="K9" s="153">
         <v>0.97267099999999995</v>
       </c>
-      <c r="J9" s="153"/>
-      <c r="K9" s="152">
-        <v>0.97743100000000005</v>
-      </c>
-      <c r="L9" s="153"/>
-      <c r="N9" s="169">
+      <c r="L9" s="154"/>
+      <c r="N9" s="168">
         <v>0.83393899999999999</v>
       </c>
-      <c r="O9" s="170"/>
-      <c r="P9" s="165">
+      <c r="O9" s="169"/>
+      <c r="P9" s="164">
         <v>0.82597100000000001</v>
       </c>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="166"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="165"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1">
       <c r="A10" s="93" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="154">
+      <c r="C10" s="155">
         <v>1.1269E-2</v>
       </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="154">
+      <c r="D10" s="156"/>
+      <c r="E10" s="155">
         <v>9.2020000000000001E-3</v>
       </c>
-      <c r="F10" s="155"/>
-      <c r="G10" s="156">
+      <c r="F10" s="156"/>
+      <c r="G10" s="157">
         <v>6.6479999999999997E-2</v>
       </c>
-      <c r="H10" s="157"/>
-      <c r="I10" s="156">
+      <c r="H10" s="158"/>
+      <c r="I10" s="157">
+        <v>1.0629E-2</v>
+      </c>
+      <c r="J10" s="158"/>
+      <c r="K10" s="157">
         <v>5.2649999999999997E-3</v>
       </c>
-      <c r="J10" s="157"/>
-      <c r="K10" s="156">
-        <v>1.0629E-2</v>
-      </c>
-      <c r="L10" s="157"/>
-      <c r="N10" s="171">
+      <c r="L10" s="158"/>
+      <c r="N10" s="170">
         <v>6.4412999999999998E-2</v>
       </c>
-      <c r="O10" s="172"/>
-      <c r="P10" s="167">
+      <c r="O10" s="171"/>
+      <c r="P10" s="166">
         <v>6.6577999999999998E-2</v>
       </c>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="167"/>
-      <c r="S10" s="168"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="166"/>
+      <c r="S10" s="167"/>
     </row>
     <row r="11" spans="1:19">
       <c r="C11" s="112"/>
@@ -3589,8 +3935,8 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="R9:S9"/>
@@ -3601,14 +3947,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C1:D1"/>
@@ -3617,11 +3963,11 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3630,57 +3976,104 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34752D7E-8195-49A1-B7E3-E29B59507B1D}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="197"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="C1" s="158" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="159"/>
-      <c r="E1" s="158" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="159"/>
-      <c r="G1" s="158" t="s">
+    <row r="1" spans="1:22" ht="15" thickBot="1">
+      <c r="C1" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="160"/>
+      <c r="E1" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="160"/>
+      <c r="G1" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="159"/>
-      <c r="I1" s="158" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="159"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1"/>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="H1" s="160"/>
+      <c r="I1" s="159" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="160"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="191"/>
+      <c r="O1" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="185"/>
+      <c r="S1" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="185"/>
+      <c r="U1" s="184" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="185"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" thickBot="1"/>
+    <row r="3" spans="1:22" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="139" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="160"/>
-      <c r="I3" s="141" t="s">
+      <c r="H3" s="161"/>
+      <c r="I3" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="160"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="J3" s="161"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="145"/>
+      <c r="S3" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="161"/>
+      <c r="U3" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="161"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="77" t="s">
@@ -3707,70 +4100,160 @@
       <c r="J4" s="105" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="137" t="b">
+      <c r="K4" s="182"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="142" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="106">
-        <v>0.89873000000000003</v>
+        <v>0.75843899999999997</v>
       </c>
       <c r="D5" s="107">
-        <v>0.10127</v>
+        <v>0.241561</v>
       </c>
       <c r="E5" s="108">
-        <v>0.95723800000000003</v>
+        <v>0.82703499999999996</v>
       </c>
       <c r="F5" s="107">
-        <v>4.2762000000000001E-2</v>
+        <v>0.17296500000000001</v>
       </c>
       <c r="G5" s="106">
-        <v>0.93342199999999997</v>
+        <v>0.79505000000000003</v>
       </c>
       <c r="H5" s="107">
-        <v>6.6577999999999998E-2</v>
+        <v>0.20494999999999999</v>
       </c>
       <c r="I5" s="106">
-        <v>0.93342199999999997</v>
+        <v>0.77836799999999995</v>
       </c>
       <c r="J5" s="107">
-        <v>6.6577999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="138"/>
+        <v>0.221632</v>
+      </c>
+      <c r="K5" s="194"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="142" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="106">
+        <v>0.80139800000000005</v>
+      </c>
+      <c r="P5" s="107">
+        <v>0.198602</v>
+      </c>
+      <c r="Q5" s="108">
+        <v>0.87068199999999996</v>
+      </c>
+      <c r="R5" s="107">
+        <v>0.12931799999999999</v>
+      </c>
+      <c r="S5" s="106">
+        <v>0.83889400000000003</v>
+      </c>
+      <c r="T5" s="107">
+        <v>0.161106</v>
+      </c>
+      <c r="U5" s="106">
+        <v>0.82073600000000002</v>
+      </c>
+      <c r="V5" s="107">
+        <v>0.17926400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" thickBot="1">
+      <c r="A6" s="143"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="109">
-        <v>2.6848E-2</v>
+        <v>5.1181999999999998E-2</v>
       </c>
       <c r="D6" s="110">
-        <v>0.97315200000000002</v>
+        <v>0.94881800000000005</v>
       </c>
       <c r="E6" s="111">
-        <v>6.6102999999999995E-2</v>
+        <v>0.11787400000000001</v>
       </c>
       <c r="F6" s="110">
-        <v>0.93389699999999998</v>
+        <v>0.88212599999999997</v>
       </c>
       <c r="G6" s="109">
-        <v>0.17402899999999999</v>
+        <v>7.6425000000000007E-2</v>
       </c>
       <c r="H6" s="110">
-        <v>0.82597100000000001</v>
+        <v>0.92357500000000003</v>
       </c>
       <c r="I6" s="109">
-        <v>0.17402899999999999</v>
+        <v>0.214034</v>
       </c>
       <c r="J6" s="110">
-        <v>0.82597100000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.78596600000000005</v>
+      </c>
+      <c r="K6" s="195"/>
+      <c r="L6" s="198"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="109">
+        <v>4.2304000000000001E-2</v>
+      </c>
+      <c r="P6" s="110">
+        <v>0.95769599999999999</v>
+      </c>
+      <c r="Q6" s="111">
+        <v>9.4876000000000002E-2</v>
+      </c>
+      <c r="R6" s="110">
+        <v>0.90512400000000004</v>
+      </c>
+      <c r="S6" s="109">
+        <v>5.9151000000000002E-2</v>
+      </c>
+      <c r="T6" s="110">
+        <v>0.94084900000000005</v>
+      </c>
+      <c r="U6" s="109">
+        <v>0.20210700000000001</v>
+      </c>
+      <c r="V6" s="110">
+        <v>0.79789299999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="C7" s="112"/>
       <c r="D7" s="112"/>
       <c r="E7" s="112"/>
@@ -3779,8 +4262,18 @@
       <c r="H7" s="112"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+      <c r="K7" s="112"/>
+      <c r="L7" s="199"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" thickBot="1">
       <c r="C8" s="112"/>
       <c r="D8" s="112"/>
       <c r="E8" s="112"/>
@@ -3789,52 +4282,106 @@
       <c r="H8" s="112"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="175" t="s">
+      <c r="K8" s="112"/>
+      <c r="L8" s="199"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="150">
-        <v>0.97315200000000002</v>
-      </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="150">
-        <v>0.93389699999999998</v>
-      </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152">
-        <v>0.82597100000000001</v>
-      </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="152">
-        <v>0.82597100000000001</v>
-      </c>
-      <c r="J9" s="153"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
-      <c r="A10" s="173" t="s">
+      <c r="B9" s="177"/>
+      <c r="C9" s="151">
+        <v>0.94881800000000005</v>
+      </c>
+      <c r="D9" s="152"/>
+      <c r="E9" s="151">
+        <v>0.88212599999999997</v>
+      </c>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153">
+        <v>0.92357500000000003</v>
+      </c>
+      <c r="H9" s="154"/>
+      <c r="I9" s="153">
+        <v>0.78596600000000005</v>
+      </c>
+      <c r="J9" s="154"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="177"/>
+      <c r="O9" s="151">
+        <v>0.95769599999999999</v>
+      </c>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="151">
+        <v>0.90512400000000004</v>
+      </c>
+      <c r="R9" s="152"/>
+      <c r="S9" s="153">
+        <v>0.94084900000000005</v>
+      </c>
+      <c r="T9" s="154"/>
+      <c r="U9" s="153">
+        <v>0.79789299999999996</v>
+      </c>
+      <c r="V9" s="154"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" thickBot="1">
+      <c r="A10" s="178" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="154">
-        <v>0.10127</v>
-      </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="154">
-        <v>4.2762000000000001E-2</v>
-      </c>
-      <c r="F10" s="155"/>
-      <c r="G10" s="156">
-        <v>6.6577999999999998E-2</v>
-      </c>
-      <c r="H10" s="157"/>
-      <c r="I10" s="156">
-        <v>6.6577999999999998E-2</v>
-      </c>
-      <c r="J10" s="157"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="B10" s="179"/>
+      <c r="C10" s="155">
+        <v>0.241561</v>
+      </c>
+      <c r="D10" s="156"/>
+      <c r="E10" s="155">
+        <v>0.17296500000000001</v>
+      </c>
+      <c r="F10" s="156"/>
+      <c r="G10" s="157">
+        <v>0.20494999999999999</v>
+      </c>
+      <c r="H10" s="158"/>
+      <c r="I10" s="157">
+        <v>0.221632</v>
+      </c>
+      <c r="J10" s="158"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="179"/>
+      <c r="O10" s="155">
+        <v>0.198602</v>
+      </c>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="155">
+        <v>0.12931799999999999</v>
+      </c>
+      <c r="R10" s="156"/>
+      <c r="S10" s="157">
+        <v>0.161106</v>
+      </c>
+      <c r="T10" s="158"/>
+      <c r="U10" s="157">
+        <v>0.17926400000000001</v>
+      </c>
+      <c r="V10" s="158"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="C11" s="103"/>
       <c r="D11" s="103"/>
       <c r="E11" s="103"/>
@@ -3843,8 +4390,10 @@
       <c r="H11" s="103"/>
       <c r="I11" s="103"/>
       <c r="J11" s="103"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="K11" s="103"/>
+      <c r="L11" s="201"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" thickBot="1">
       <c r="C12" s="103"/>
       <c r="D12" s="103"/>
       <c r="E12" s="103"/>
@@ -3853,21 +4402,274 @@
       <c r="H12" s="104"/>
       <c r="I12" s="103"/>
       <c r="J12" s="104"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+      <c r="K12" s="104"/>
+      <c r="L12" s="202"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" thickBot="1">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="203"/>
+      <c r="M13" s="196"/>
+      <c r="N13" s="101"/>
+      <c r="Q13" s="204" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="204" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1">
+      <c r="C18" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="185"/>
+      <c r="E18" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="185"/>
+      <c r="G18" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="185"/>
+      <c r="I18" s="184" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="185"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1"/>
+    <row r="20" spans="1:10" ht="15" thickBot="1">
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="145"/>
+      <c r="E20" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="145"/>
+      <c r="G20" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="161"/>
+      <c r="I20" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="161"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1">
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="142" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="106">
+        <v>0.80139800000000005</v>
+      </c>
+      <c r="D22" s="107">
+        <v>0.198602</v>
+      </c>
+      <c r="E22" s="108">
+        <v>0.87068199999999996</v>
+      </c>
+      <c r="F22" s="107">
+        <v>0.12931799999999999</v>
+      </c>
+      <c r="G22" s="106">
+        <v>0.83889400000000003</v>
+      </c>
+      <c r="H22" s="107">
+        <v>0.161106</v>
+      </c>
+      <c r="I22" s="106">
+        <v>0.82073600000000002</v>
+      </c>
+      <c r="J22" s="107">
+        <v>0.17926400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1">
+      <c r="A23" s="143"/>
+      <c r="B23" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="109">
+        <v>4.2304000000000001E-2</v>
+      </c>
+      <c r="D23" s="110">
+        <v>0.95769599999999999</v>
+      </c>
+      <c r="E23" s="111">
+        <v>9.4876000000000002E-2</v>
+      </c>
+      <c r="F23" s="110">
+        <v>0.90512400000000004</v>
+      </c>
+      <c r="G23" s="109">
+        <v>5.9151000000000002E-2</v>
+      </c>
+      <c r="H23" s="110">
+        <v>0.94084900000000005</v>
+      </c>
+      <c r="I23" s="109">
+        <v>0.20210700000000001</v>
+      </c>
+      <c r="J23" s="110">
+        <v>0.79789299999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1">
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="177"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="151">
+        <v>0.90512400000000004</v>
+      </c>
+      <c r="F26" s="152"/>
+      <c r="G26" s="153">
+        <v>0.94084900000000005</v>
+      </c>
+      <c r="H26" s="154"/>
+      <c r="I26" s="153">
+        <v>0.79789299999999996</v>
+      </c>
+      <c r="J26" s="154"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1">
+      <c r="A27" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="179"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="155">
+        <v>0.12931799999999999</v>
+      </c>
+      <c r="F27" s="156"/>
+      <c r="G27" s="157">
+        <v>0.161106</v>
+      </c>
+      <c r="H27" s="158"/>
+      <c r="I27" s="157">
+        <v>0.17926400000000001</v>
+      </c>
+      <c r="J27" s="158"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="H29" s="205" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="61">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="I1:J1"/>
@@ -3899,57 +4701,102 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200A8B2E-17D5-4F5A-B051-63EF40240809}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:J10"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="1.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="C1" s="158" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="159"/>
-      <c r="E1" s="158" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="159"/>
-      <c r="G1" s="158" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="159"/>
-      <c r="I1" s="158" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="159"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1"/>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:21" ht="15" thickBot="1">
+      <c r="C1" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="185"/>
+      <c r="E1" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="185"/>
+      <c r="G1" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="185"/>
+      <c r="I1" s="184" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="185"/>
+      <c r="N1" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="185"/>
+      <c r="P1" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="185"/>
+      <c r="T1" s="184" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="185"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1"/>
+    <row r="3" spans="1:21" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="139" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="160"/>
-      <c r="I3" s="141" t="s">
+      <c r="H3" s="161"/>
+      <c r="I3" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="160"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="J3" s="161"/>
+      <c r="N3" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="145"/>
+      <c r="P3" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="161"/>
+      <c r="T3" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="161"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="77" t="s">
@@ -3976,62 +4823,142 @@
       <c r="J4" s="105" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="137" t="b">
+      <c r="N4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="142" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="106">
-        <v>0.89513799999999999</v>
+        <v>0.70376899999999998</v>
       </c>
       <c r="D5" s="107">
-        <v>0.104862</v>
+        <v>0.29623100000000002</v>
       </c>
       <c r="E5" s="108">
-        <v>0.92279299999999997</v>
+        <v>0.72724100000000003</v>
       </c>
       <c r="F5" s="107">
-        <v>7.7206999999999998E-2</v>
+        <v>0.27275899999999997</v>
       </c>
       <c r="G5" s="106">
-        <v>0.88362399999999997</v>
+        <v>0.62233000000000005</v>
       </c>
       <c r="H5" s="107">
-        <v>0.11637599999999999</v>
-      </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="138"/>
+        <v>0.37767000000000001</v>
+      </c>
+      <c r="I5" s="106">
+        <v>0.68133100000000002</v>
+      </c>
+      <c r="J5" s="107">
+        <v>0.31866899999999998</v>
+      </c>
+      <c r="N5" s="106">
+        <v>0.63605900000000004</v>
+      </c>
+      <c r="O5" s="107">
+        <v>0.36394100000000001</v>
+      </c>
+      <c r="P5" s="108">
+        <v>0.68708800000000003</v>
+      </c>
+      <c r="Q5" s="107">
+        <v>0.31291200000000002</v>
+      </c>
+      <c r="R5" s="106">
+        <v>0.62238000000000004</v>
+      </c>
+      <c r="S5" s="107">
+        <v>0.37762000000000001</v>
+      </c>
+      <c r="T5" s="106">
+        <v>0.67557299999999998</v>
+      </c>
+      <c r="U5" s="107">
+        <v>0.32442700000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1">
+      <c r="A6" s="143"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="109">
-        <v>0.12717899999999999</v>
+        <v>0.168735</v>
       </c>
       <c r="D6" s="110">
-        <v>0.87282099999999996</v>
+        <v>0.83126500000000003</v>
       </c>
       <c r="E6" s="111">
-        <v>0.21237600000000001</v>
+        <v>0.25179200000000002</v>
       </c>
       <c r="F6" s="110">
-        <v>0.78762399999999999</v>
+        <v>0.74820799999999998</v>
       </c>
       <c r="G6" s="109">
-        <v>0.28805199999999997</v>
+        <v>7.1131E-2</v>
       </c>
       <c r="H6" s="110">
-        <v>0.71194800000000003</v>
-      </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="110"/>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.92886899999999994</v>
+      </c>
+      <c r="I6" s="109">
+        <v>0.32056899999999999</v>
+      </c>
+      <c r="J6" s="110">
+        <v>0.67943100000000001</v>
+      </c>
+      <c r="N6" s="109">
+        <v>8.9902999999999997E-2</v>
+      </c>
+      <c r="O6" s="110">
+        <v>0.91009700000000004</v>
+      </c>
+      <c r="P6" s="111">
+        <v>0.154027</v>
+      </c>
+      <c r="Q6" s="110">
+        <v>0.84597299999999997</v>
+      </c>
+      <c r="R6" s="109">
+        <v>7.1131E-2</v>
+      </c>
+      <c r="S6" s="110">
+        <v>0.92886899999999994</v>
+      </c>
+      <c r="T6" s="109">
+        <v>0.32244099999999998</v>
+      </c>
+      <c r="U6" s="110">
+        <v>0.67755900000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="C7" s="112"/>
       <c r="D7" s="112"/>
       <c r="E7" s="112"/>
@@ -4040,8 +4967,16 @@
       <c r="H7" s="112"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1">
       <c r="C8" s="112"/>
       <c r="D8" s="112"/>
       <c r="E8" s="112"/>
@@ -4050,48 +4985,92 @@
       <c r="H8" s="112"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="175" t="s">
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="150">
-        <v>0.87282099999999996</v>
-      </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="150">
-        <v>0.78762399999999999</v>
-      </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152">
-        <v>0.71194800000000003</v>
-      </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="153"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
-      <c r="A10" s="173" t="s">
+      <c r="B9" s="177"/>
+      <c r="C9" s="151">
+        <v>0.83126500000000003</v>
+      </c>
+      <c r="D9" s="152"/>
+      <c r="E9" s="151">
+        <v>0.74820799999999998</v>
+      </c>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153">
+        <v>0.92886899999999994</v>
+      </c>
+      <c r="H9" s="154"/>
+      <c r="I9" s="153">
+        <v>0.67943100000000001</v>
+      </c>
+      <c r="J9" s="154"/>
+      <c r="N9" s="151">
+        <v>0.91009700000000004</v>
+      </c>
+      <c r="O9" s="152"/>
+      <c r="P9" s="151">
+        <v>0.84597299999999997</v>
+      </c>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="153">
+        <v>0.92886899999999994</v>
+      </c>
+      <c r="S9" s="154"/>
+      <c r="T9" s="153">
+        <v>0.67755900000000002</v>
+      </c>
+      <c r="U9" s="154"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1">
+      <c r="A10" s="178" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="154">
-        <v>0.104862</v>
-      </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="154">
-        <v>7.7206999999999998E-2</v>
-      </c>
-      <c r="F10" s="155"/>
-      <c r="G10" s="156">
-        <v>0.11637599999999999</v>
-      </c>
-      <c r="H10" s="157"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="157"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="B10" s="179"/>
+      <c r="C10" s="155">
+        <v>0.29623100000000002</v>
+      </c>
+      <c r="D10" s="156"/>
+      <c r="E10" s="155">
+        <v>0.27275899999999997</v>
+      </c>
+      <c r="F10" s="156"/>
+      <c r="G10" s="157">
+        <v>0.37767000000000001</v>
+      </c>
+      <c r="H10" s="158"/>
+      <c r="I10" s="157">
+        <v>0.31866899999999998</v>
+      </c>
+      <c r="J10" s="158"/>
+      <c r="N10" s="155">
+        <v>0.36394100000000001</v>
+      </c>
+      <c r="O10" s="156"/>
+      <c r="P10" s="155">
+        <v>0.31291200000000002</v>
+      </c>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="157">
+        <v>0.37762000000000001</v>
+      </c>
+      <c r="S10" s="158"/>
+      <c r="T10" s="157">
+        <v>0.32442700000000002</v>
+      </c>
+      <c r="U10" s="158"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="C11" s="103"/>
       <c r="D11" s="103"/>
       <c r="E11" s="103"/>
@@ -4101,7 +5080,7 @@
       <c r="I11" s="103"/>
       <c r="J11" s="103"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:21" ht="15" thickBot="1">
       <c r="C12" s="103"/>
       <c r="D12" s="103"/>
       <c r="E12" s="103"/>
@@ -4111,20 +5090,397 @@
       <c r="I12" s="103"/>
       <c r="J12" s="104"/>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+    <row r="13" spans="1:21" ht="15" thickBot="1">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
+      <c r="P13" s="125" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="F14" s="125" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" thickBot="1"/>
+    <row r="18" spans="1:21" ht="15" thickBot="1">
+      <c r="C18" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="185"/>
+      <c r="E18" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="185"/>
+      <c r="G18" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="185"/>
+      <c r="I18" s="184" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="185"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" thickBot="1">
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="N19" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="185"/>
+      <c r="P19" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" s="185"/>
+      <c r="R19" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="S19" s="185"/>
+      <c r="T19" s="184" t="s">
+        <v>84</v>
+      </c>
+      <c r="U19" s="185"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1">
+      <c r="A20" s="142" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="106">
+        <v>0.70376899999999998</v>
+      </c>
+      <c r="D20" s="107">
+        <v>0.29623100000000002</v>
+      </c>
+      <c r="E20" s="108">
+        <v>0.72724100000000003</v>
+      </c>
+      <c r="F20" s="107">
+        <v>0.27275899999999997</v>
+      </c>
+      <c r="G20" s="106">
+        <v>0.696191</v>
+      </c>
+      <c r="H20" s="107">
+        <v>0.303809</v>
+      </c>
+      <c r="I20" s="106">
+        <v>0.68133100000000002</v>
+      </c>
+      <c r="J20" s="107">
+        <v>0.31866899999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1">
+      <c r="A21" s="143"/>
+      <c r="B21" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="109">
+        <v>0.168735</v>
+      </c>
+      <c r="D21" s="110">
+        <v>0.83126500000000003</v>
+      </c>
+      <c r="E21" s="111">
+        <v>0.25179200000000002</v>
+      </c>
+      <c r="F21" s="110">
+        <v>0.74820799999999998</v>
+      </c>
+      <c r="G21" s="109">
+        <v>0.14338400000000001</v>
+      </c>
+      <c r="H21" s="110">
+        <v>0.85661600000000004</v>
+      </c>
+      <c r="I21" s="109">
+        <v>0.32056899999999999</v>
+      </c>
+      <c r="J21" s="110">
+        <v>0.67943100000000001</v>
+      </c>
+      <c r="N21" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="145"/>
+      <c r="P21" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="161"/>
+      <c r="T21" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="161"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1">
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="T22" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="U22" s="105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickBot="1">
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="L23" s="142" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="N23" s="106">
+        <v>0.89513799999999999</v>
+      </c>
+      <c r="O23" s="107">
+        <v>0.104862</v>
+      </c>
+      <c r="P23" s="108">
+        <v>0.92279299999999997</v>
+      </c>
+      <c r="Q23" s="107">
+        <v>7.7206999999999998E-2</v>
+      </c>
+      <c r="R23" s="106">
+        <v>0.88475499999999996</v>
+      </c>
+      <c r="S23" s="107">
+        <v>0.115245</v>
+      </c>
+      <c r="T23" s="106">
+        <v>0.88362399999999997</v>
+      </c>
+      <c r="U23" s="107">
+        <v>0.11637599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" thickBot="1">
+      <c r="A24" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="177"/>
+      <c r="C24" s="151">
+        <v>0.83126500000000003</v>
+      </c>
+      <c r="D24" s="152"/>
+      <c r="E24" s="151">
+        <v>0.74820799999999998</v>
+      </c>
+      <c r="F24" s="152"/>
+      <c r="G24" s="153">
+        <v>0.85661600000000004</v>
+      </c>
+      <c r="H24" s="154"/>
+      <c r="I24" s="153">
+        <v>0.67943100000000001</v>
+      </c>
+      <c r="J24" s="154"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="109">
+        <v>0.12717899999999999</v>
+      </c>
+      <c r="O24" s="110">
+        <v>0.87282099999999996</v>
+      </c>
+      <c r="P24" s="111">
+        <v>0.21237600000000001</v>
+      </c>
+      <c r="Q24" s="110">
+        <v>0.78762399999999999</v>
+      </c>
+      <c r="R24" s="109">
+        <v>0.101829</v>
+      </c>
+      <c r="S24" s="110">
+        <v>0.89817100000000005</v>
+      </c>
+      <c r="T24" s="109">
+        <v>0.28805199999999997</v>
+      </c>
+      <c r="U24" s="110">
+        <v>0.71194800000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15" thickBot="1">
+      <c r="A25" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="179"/>
+      <c r="C25" s="155">
+        <v>0.29623100000000002</v>
+      </c>
+      <c r="D25" s="156"/>
+      <c r="E25" s="155">
+        <v>0.27275899999999997</v>
+      </c>
+      <c r="F25" s="156"/>
+      <c r="G25" s="157">
+        <v>0.303809</v>
+      </c>
+      <c r="H25" s="158"/>
+      <c r="I25" s="157">
+        <v>0.31866899999999998</v>
+      </c>
+      <c r="J25" s="158"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1">
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="E27" s="205" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="177"/>
+      <c r="N27" s="151">
+        <v>0.87282099999999996</v>
+      </c>
+      <c r="O27" s="152"/>
+      <c r="P27" s="151">
+        <v>0.78762399999999999</v>
+      </c>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="153">
+        <v>0.89817100000000005</v>
+      </c>
+      <c r="S27" s="154"/>
+      <c r="T27" s="153">
+        <v>0.71194800000000003</v>
+      </c>
+      <c r="U27" s="154"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" thickBot="1">
+      <c r="L28" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="179"/>
+      <c r="N28" s="155">
+        <v>0.104862</v>
+      </c>
+      <c r="O28" s="156"/>
+      <c r="P28" s="155">
+        <v>7.7206999999999998E-2</v>
+      </c>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="157">
+        <v>0.115245</v>
+      </c>
+      <c r="S28" s="158"/>
+      <c r="T28" s="157">
+        <v>0.11637599999999999</v>
+      </c>
+      <c r="U28" s="158"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="P30" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="73">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -4148,6 +5504,22 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4170,10 +5542,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="127"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -4405,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="122"/>
+      <c r="G1" s="127"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -5148,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="122"/>
+      <c r="G1" s="127"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -5883,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="122"/>
+      <c r="G1" s="127"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -6396,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="122"/>
+      <c r="G1" s="127"/>
       <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6707,11 +8079,11 @@
       <c r="D13" s="4">
         <v>1.51753</v>
       </c>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="125"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="130"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3">
@@ -7181,10 +8553,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="122"/>
+      <c r="G1" s="127"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -7491,13 +8863,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -7956,10 +9328,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="122"/>
+      <c r="G1" s="127"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -8703,10 +10075,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="122"/>
+      <c r="G1" s="127"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -9013,13 +10385,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -9479,10 +10851,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="122"/>
+      <c r="G1" s="127"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -9793,13 +11165,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -10702,10 +12074,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="127"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -10940,10 +12312,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="127"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -11182,10 +12554,10 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="46"/>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="128"/>
+      <c r="E2" s="133"/>
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="3:6">

--- a/mnist_rankfiltering_new.xlsx
+++ b/mnist_rankfiltering_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Mnist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D13029-4873-4892-A0CF-0B6B936DAE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FDE8AB-26E9-45D0-9FE3-C0591A940A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="13" xr2:uid="{99AABAAA-7628-4418-980C-C3481A48FE43}"/>
   </bookViews>
   <sheets>
     <sheet name="ace85svm" sheetId="5" state="hidden" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="ace%25" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="ace recur svm 20%" sheetId="10" state="hidden" r:id="rId5"/>
     <sheet name="ace svm 75 percentile" sheetId="11" state="hidden" r:id="rId6"/>
-    <sheet name="ace svm 25% " sheetId="12" r:id="rId7"/>
+    <sheet name="ace svm 25% " sheetId="12" state="hidden" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="14" state="hidden" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="15" state="hidden" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="16" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="16" state="hidden" r:id="rId10"/>
     <sheet name="dbscanclust_l1pca" sheetId="17" state="hidden" r:id="rId11"/>
     <sheet name="0%" sheetId="18" r:id="rId12"/>
     <sheet name="20%contamination" sheetId="19" r:id="rId13"/>
@@ -35,7 +35,6 @@
     <sheet name="ace80svm" sheetId="4" state="hidden" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="110">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -713,6 +712,750 @@
       <t>22</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>        param_grid = {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'C'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'gamma'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">#,'kernel': ['rbf']} </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        grid = GridSearchCV(SVC(), param_grid, refit = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, verbose = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>        grid.fit(x_train, y_train)</t>
+  </si>
+  <si>
+    <t>        param=grid.best_params_</t>
+  </si>
+  <si>
+    <r>
+      <t>        C_best=param[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'C'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        gamma_best=param[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'gamma'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>#kernel_best=param['kernel']</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <r>
+      <t>        classifier =svm.SVC(kernel=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'poly'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, degree=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,gamma=gamma_best, C=C_best, random_state=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t># C_best=10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t># gamma_best=0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>#classifier =SVC(kernel="poly",degree=1,random_state=22) # same results for cummu and raw</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t># kernel="poly", gamma=0.01,C=1  for 20%, for knee the pfa degrades</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">#classifier =SVC(kernel="poly", gamma=0.01,C=1 )#",kernel="poly", degree=3, gamma=0.01 ,C=10 </t>
+    </r>
+  </si>
+  <si>
+    <t>        classifier.fit(x_train, y_train)  </t>
+  </si>
+  <si>
+    <t>no scale</t>
+  </si>
+  <si>
+    <r>
+      <t>param_grid = {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'C'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'gamma'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'kernel'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'poly'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]} </t>
+    </r>
+  </si>
+  <si>
+    <t>        x_train = scale(x_train)</t>
+  </si>
+  <si>
+    <t>        x_test=scale(x_test)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn.preprocessing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> scale</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>classifier =svm.SVC(kernel=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"poly"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,degree=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, gamma=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, random_state=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -721,7 +1464,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,8 +1565,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF116644"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFAF00DB"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFA31515"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF116644"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,6 +1712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,6 +2441,53 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1745,133 +2587,90 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2207,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="127"/>
+      <c r="G1" s="144"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -2958,26 +3757,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="139"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="51"/>
-      <c r="J2" s="138" t="s">
+      <c r="J2" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="139"/>
+      <c r="K2" s="156"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="141"/>
+      <c r="E3" s="158"/>
       <c r="F3" s="52"/>
-      <c r="J3" s="140" t="s">
+      <c r="J3" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="141"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="53" t="s">
@@ -2995,7 +3794,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="134" t="b">
+      <c r="B5" s="151" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -3009,10 +3808,10 @@
         <f>D14</f>
         <v>51.2</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="134" t="b">
+      <c r="H5" s="151" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="57" t="s">
@@ -3026,12 +3825,12 @@
         <f>D20</f>
         <v>51.2</v>
       </c>
-      <c r="L5" s="136" t="s">
+      <c r="L5" s="153" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="135"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="60" t="s">
         <v>49</v>
       </c>
@@ -3043,8 +3842,8 @@
         <f>D15</f>
         <v>1838.4</v>
       </c>
-      <c r="F6" s="137"/>
-      <c r="H6" s="135"/>
+      <c r="F6" s="154"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="60" t="s">
         <v>49</v>
       </c>
@@ -3056,7 +3855,7 @@
         <f>D21</f>
         <v>1775.4</v>
       </c>
-      <c r="L6" s="137"/>
+      <c r="L6" s="154"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="61" t="s">
@@ -3353,30 +4152,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150"/>
-      <c r="G1" s="148" t="s">
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+      <c r="G1" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="150"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="167"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="162"/>
       <c r="E3" s="84"/>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="147"/>
+      <c r="I3" s="164"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -3396,7 +4195,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="142" t="b">
+      <c r="A5" s="159" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
@@ -3419,7 +4218,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="143"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
@@ -3515,7 +4314,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3529,39 +4328,39 @@
     <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="183" customFormat="1" ht="15" thickBot="1">
-      <c r="C1" s="184" t="s">
+    <row r="1" spans="1:19" s="129" customFormat="1" ht="15" thickBot="1">
+      <c r="C1" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="185"/>
-      <c r="E1" s="184" t="s">
+      <c r="D1" s="177"/>
+      <c r="E1" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="184" t="s">
+      <c r="F1" s="177"/>
+      <c r="G1" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="184" t="s">
+      <c r="H1" s="177"/>
+      <c r="I1" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="185"/>
-      <c r="K1" s="184" t="s">
+      <c r="J1" s="177"/>
+      <c r="K1" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="185"/>
-      <c r="N1" s="186" t="s">
+      <c r="L1" s="177"/>
+      <c r="N1" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="187"/>
-      <c r="P1" s="186" t="s">
+      <c r="O1" s="180"/>
+      <c r="P1" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="186" t="s">
+      <c r="Q1" s="180"/>
+      <c r="R1" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="187"/>
+      <c r="S1" s="180"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="N2" s="113"/>
@@ -3574,38 +4373,38 @@
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="144" t="s">
+      <c r="D3" s="162"/>
+      <c r="E3" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="146" t="s">
+      <c r="F3" s="162"/>
+      <c r="G3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="147"/>
-      <c r="I3" s="146" t="s">
+      <c r="H3" s="164"/>
+      <c r="I3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="146" t="s">
+      <c r="J3" s="178"/>
+      <c r="K3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="161"/>
-      <c r="N3" s="162" t="s">
+      <c r="L3" s="178"/>
+      <c r="N3" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="163"/>
-      <c r="P3" s="162" t="s">
+      <c r="O3" s="182"/>
+      <c r="P3" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="162" t="s">
+      <c r="Q3" s="182"/>
+      <c r="R3" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="163"/>
+      <c r="S3" s="182"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -3660,7 +4459,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="142" t="b">
+      <c r="A5" s="159" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
@@ -3712,7 +4511,7 @@
       <c r="S5" s="117"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="143"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
@@ -3802,72 +4601,72 @@
         <v>65</v>
       </c>
       <c r="B9" s="94"/>
-      <c r="C9" s="151">
+      <c r="C9" s="168">
         <v>0.977912</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="151">
+      <c r="D9" s="169"/>
+      <c r="E9" s="168">
         <v>0.97497100000000003</v>
       </c>
-      <c r="F9" s="152"/>
-      <c r="G9" s="153">
+      <c r="F9" s="169"/>
+      <c r="G9" s="170">
         <v>0.82618499999999995</v>
       </c>
-      <c r="H9" s="154"/>
-      <c r="I9" s="153">
+      <c r="H9" s="171"/>
+      <c r="I9" s="170">
         <v>0.97743100000000005</v>
       </c>
-      <c r="J9" s="154"/>
-      <c r="K9" s="153">
+      <c r="J9" s="171"/>
+      <c r="K9" s="170">
         <v>0.97267099999999995</v>
       </c>
-      <c r="L9" s="154"/>
-      <c r="N9" s="168">
+      <c r="L9" s="171"/>
+      <c r="N9" s="187">
         <v>0.83393899999999999</v>
       </c>
-      <c r="O9" s="169"/>
-      <c r="P9" s="164">
+      <c r="O9" s="188"/>
+      <c r="P9" s="183">
         <v>0.82597100000000001</v>
       </c>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="165"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="184"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1">
       <c r="A10" s="93" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="155">
+      <c r="C10" s="172">
         <v>1.1269E-2</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="155">
+      <c r="D10" s="173"/>
+      <c r="E10" s="172">
         <v>9.2020000000000001E-3</v>
       </c>
-      <c r="F10" s="156"/>
-      <c r="G10" s="157">
+      <c r="F10" s="173"/>
+      <c r="G10" s="174">
         <v>6.6479999999999997E-2</v>
       </c>
-      <c r="H10" s="158"/>
-      <c r="I10" s="157">
+      <c r="H10" s="175"/>
+      <c r="I10" s="174">
         <v>1.0629E-2</v>
       </c>
-      <c r="J10" s="158"/>
-      <c r="K10" s="157">
+      <c r="J10" s="175"/>
+      <c r="K10" s="174">
         <v>5.2649999999999997E-3</v>
       </c>
-      <c r="L10" s="158"/>
-      <c r="N10" s="170">
+      <c r="L10" s="175"/>
+      <c r="N10" s="189">
         <v>6.4412999999999998E-2</v>
       </c>
-      <c r="O10" s="171"/>
-      <c r="P10" s="166">
+      <c r="O10" s="190"/>
+      <c r="P10" s="185">
         <v>6.6577999999999998E-2</v>
       </c>
-      <c r="Q10" s="167"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="167"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="185"/>
+      <c r="S10" s="186"/>
     </row>
     <row r="11" spans="1:19">
       <c r="C11" s="112"/>
@@ -3935,8 +4734,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="R9:S9"/>
@@ -3947,19 +4744,19 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
@@ -3968,6 +4765,8 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3976,16 +4775,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34752D7E-8195-49A1-B7E3-E29B59507B1D}">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="197"/>
     <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="14" width="10.109375" customWidth="1"/>
     <col min="15" max="15" width="13.33203125" customWidth="1"/>
@@ -3997,81 +4795,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1">
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="160"/>
-      <c r="E1" s="159" t="s">
+      <c r="D1" s="200"/>
+      <c r="E1" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="160"/>
-      <c r="G1" s="159" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="160"/>
-      <c r="I1" s="159" t="s">
+      <c r="H1" s="200"/>
+      <c r="I1" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="160"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="191"/>
-      <c r="O1" s="184" t="s">
+      <c r="J1" s="200"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="133"/>
+      <c r="O1" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="184" t="s">
+      <c r="P1" s="177"/>
+      <c r="Q1" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="185"/>
-      <c r="S1" s="184" t="s">
+      <c r="R1" s="177"/>
+      <c r="S1" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="185"/>
-      <c r="U1" s="184" t="s">
+      <c r="T1" s="177"/>
+      <c r="U1" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="185"/>
+      <c r="V1" s="177"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1"/>
     <row r="3" spans="1:22" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="144" t="s">
+      <c r="D3" s="162"/>
+      <c r="E3" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="146" t="s">
+      <c r="F3" s="162"/>
+      <c r="G3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="161"/>
-      <c r="I3" s="146" t="s">
+      <c r="H3" s="178"/>
+      <c r="I3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="192"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="134"/>
       <c r="M3" s="76"/>
       <c r="N3" s="76"/>
-      <c r="O3" s="144" t="s">
+      <c r="O3" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="144" t="s">
+      <c r="P3" s="162"/>
+      <c r="Q3" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="145"/>
-      <c r="S3" s="146" t="s">
+      <c r="R3" s="162"/>
+      <c r="S3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="161"/>
-      <c r="U3" s="146" t="s">
+      <c r="T3" s="178"/>
+      <c r="U3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="161"/>
+      <c r="V3" s="178"/>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -4100,8 +4898,8 @@
       <c r="J4" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="182"/>
-      <c r="L4" s="193"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="76"/>
       <c r="N4" s="76"/>
       <c r="O4" s="77" t="s">
@@ -4130,7 +4928,7 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="142" t="b">
+      <c r="A5" s="159" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
@@ -4160,9 +4958,9 @@
       <c r="J5" s="107">
         <v>0.221632</v>
       </c>
-      <c r="K5" s="194"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="142" t="b">
+      <c r="K5" s="135"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="159" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="77" t="s">
@@ -4194,7 +4992,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1">
-      <c r="A6" s="143"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
@@ -4222,9 +5020,9 @@
       <c r="J6" s="110">
         <v>0.78596600000000005</v>
       </c>
-      <c r="K6" s="195"/>
-      <c r="L6" s="198"/>
-      <c r="M6" s="143"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="160"/>
       <c r="N6" s="78" t="s">
         <v>69</v>
       </c>
@@ -4263,7 +5061,7 @@
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
-      <c r="L7" s="199"/>
+      <c r="L7" s="112"/>
       <c r="O7" s="112"/>
       <c r="P7" s="112"/>
       <c r="Q7" s="112"/>
@@ -4283,7 +5081,7 @@
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
-      <c r="L8" s="199"/>
+      <c r="L8" s="112"/>
       <c r="O8" s="112"/>
       <c r="P8" s="112"/>
       <c r="Q8" s="112"/>
@@ -4294,92 +5092,92 @@
       <c r="V8" s="112"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="177"/>
-      <c r="C9" s="151">
+      <c r="B9" s="196"/>
+      <c r="C9" s="168">
         <v>0.94881800000000005</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="151">
+      <c r="D9" s="169"/>
+      <c r="E9" s="168">
         <v>0.88212599999999997</v>
       </c>
-      <c r="F9" s="152"/>
-      <c r="G9" s="153">
+      <c r="F9" s="169"/>
+      <c r="G9" s="170">
         <v>0.92357500000000003</v>
       </c>
-      <c r="H9" s="154"/>
-      <c r="I9" s="153">
+      <c r="H9" s="171"/>
+      <c r="I9" s="170">
         <v>0.78596600000000005</v>
       </c>
-      <c r="J9" s="154"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="176" t="s">
+      <c r="J9" s="171"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="177"/>
-      <c r="O9" s="151">
+      <c r="N9" s="196"/>
+      <c r="O9" s="168">
         <v>0.95769599999999999</v>
       </c>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="151">
+      <c r="P9" s="169"/>
+      <c r="Q9" s="168">
         <v>0.90512400000000004</v>
       </c>
-      <c r="R9" s="152"/>
-      <c r="S9" s="153">
+      <c r="R9" s="169"/>
+      <c r="S9" s="170">
         <v>0.94084900000000005</v>
       </c>
-      <c r="T9" s="154"/>
-      <c r="U9" s="153">
+      <c r="T9" s="171"/>
+      <c r="U9" s="170">
         <v>0.79789299999999996</v>
       </c>
-      <c r="V9" s="154"/>
+      <c r="V9" s="171"/>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="179"/>
-      <c r="C10" s="155">
+      <c r="B10" s="198"/>
+      <c r="C10" s="172">
         <v>0.241561</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="155">
+      <c r="D10" s="173"/>
+      <c r="E10" s="172">
         <v>0.17296500000000001</v>
       </c>
-      <c r="F10" s="156"/>
-      <c r="G10" s="157">
+      <c r="F10" s="173"/>
+      <c r="G10" s="174">
         <v>0.20494999999999999</v>
       </c>
-      <c r="H10" s="158"/>
-      <c r="I10" s="157">
+      <c r="H10" s="175"/>
+      <c r="I10" s="174">
         <v>0.221632</v>
       </c>
-      <c r="J10" s="158"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="178" t="s">
+      <c r="J10" s="175"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="179"/>
-      <c r="O10" s="155">
+      <c r="N10" s="198"/>
+      <c r="O10" s="172">
         <v>0.198602</v>
       </c>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="155">
+      <c r="P10" s="173"/>
+      <c r="Q10" s="172">
         <v>0.12931799999999999</v>
       </c>
-      <c r="R10" s="156"/>
-      <c r="S10" s="157">
+      <c r="R10" s="173"/>
+      <c r="S10" s="174">
         <v>0.161106</v>
       </c>
-      <c r="T10" s="158"/>
-      <c r="U10" s="157">
+      <c r="T10" s="175"/>
+      <c r="U10" s="174">
         <v>0.17926400000000001</v>
       </c>
-      <c r="V10" s="158"/>
+      <c r="V10" s="175"/>
     </row>
     <row r="11" spans="1:22">
       <c r="C11" s="103"/>
@@ -4391,7 +5189,7 @@
       <c r="I11" s="103"/>
       <c r="J11" s="103"/>
       <c r="K11" s="103"/>
-      <c r="L11" s="201"/>
+      <c r="L11" s="103"/>
     </row>
     <row r="12" spans="1:22" ht="15" thickBot="1">
       <c r="C12" s="103"/>
@@ -4403,28 +5201,33 @@
       <c r="I12" s="103"/>
       <c r="J12" s="104"/>
       <c r="K12" s="104"/>
-      <c r="L12" s="202"/>
+      <c r="L12" s="104"/>
     </row>
     <row r="13" spans="1:22" ht="15" thickBot="1">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="196"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="137"/>
       <c r="N13" s="101"/>
-      <c r="Q13" s="204" t="s">
+      <c r="Q13" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="R13" s="204" t="s">
+      <c r="R13" s="141" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="M14" s="142" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -4435,47 +5238,94 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1"/>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
-      <c r="C18" s="184" t="s">
+    <row r="16" spans="1:22">
+      <c r="M16" s="201" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="201"/>
+      <c r="O16" s="201"/>
+      <c r="P16" s="201"/>
+      <c r="Q16" s="201"/>
+      <c r="R16" s="201"/>
+      <c r="S16" s="201"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1">
+      <c r="M17" s="202" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" s="201"/>
+      <c r="O17" s="201"/>
+      <c r="P17" s="201"/>
+      <c r="Q17" s="201"/>
+      <c r="R17" s="201"/>
+      <c r="S17" s="201"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1">
+      <c r="C18" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="185"/>
-      <c r="E18" s="184" t="s">
+      <c r="D18" s="177"/>
+      <c r="E18" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="185"/>
-      <c r="G18" s="184" t="s">
+      <c r="F18" s="177"/>
+      <c r="G18" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="185"/>
-      <c r="I18" s="184" t="s">
+      <c r="H18" s="177"/>
+      <c r="I18" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="185"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1"/>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+      <c r="J18" s="177"/>
+      <c r="M18" s="202" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
+      <c r="S18" s="201"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1">
+      <c r="M19" s="203"/>
+      <c r="N19" s="201"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="201"/>
+      <c r="Q19" s="201"/>
+      <c r="R19" s="201"/>
+      <c r="S19" s="201"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1">
       <c r="A20" s="76"/>
       <c r="B20" s="76"/>
-      <c r="C20" s="144" t="s">
+      <c r="C20" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="144" t="s">
+      <c r="D20" s="162"/>
+      <c r="E20" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="145"/>
-      <c r="G20" s="146" t="s">
+      <c r="F20" s="162"/>
+      <c r="G20" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="161"/>
-      <c r="I20" s="146" t="s">
+      <c r="H20" s="178"/>
+      <c r="I20" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="161"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+      <c r="J20" s="178"/>
+      <c r="M20" s="202" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="201"/>
+      <c r="O20" s="201"/>
+      <c r="P20" s="201"/>
+      <c r="Q20" s="201"/>
+      <c r="R20" s="201"/>
+      <c r="S20" s="201"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1">
       <c r="A21" s="76"/>
       <c r="B21" s="76"/>
       <c r="C21" s="77" t="s">
@@ -4502,9 +5352,18 @@
       <c r="J21" s="105" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="142" t="b">
+      <c r="M21" s="202" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" s="201"/>
+      <c r="O21" s="201"/>
+      <c r="P21" s="201"/>
+      <c r="Q21" s="201"/>
+      <c r="R21" s="201"/>
+      <c r="S21" s="201"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="159" t="b">
         <v>1</v>
       </c>
       <c r="B22" s="77" t="s">
@@ -4534,9 +5393,18 @@
       <c r="J22" s="107">
         <v>0.17926400000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
-      <c r="A23" s="143"/>
+      <c r="M22" s="202" t="s">
+        <v>93</v>
+      </c>
+      <c r="N22" s="201"/>
+      <c r="O22" s="201"/>
+      <c r="P22" s="201"/>
+      <c r="Q22" s="201"/>
+      <c r="R22" s="201"/>
+      <c r="S22" s="201"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1">
+      <c r="A23" s="160"/>
       <c r="B23" s="78" t="s">
         <v>69</v>
       </c>
@@ -4564,8 +5432,17 @@
       <c r="J23" s="110">
         <v>0.79789299999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="M23" s="202" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="201"/>
+      <c r="O23" s="201"/>
+      <c r="P23" s="201"/>
+      <c r="Q23" s="201"/>
+      <c r="R23" s="201"/>
+      <c r="S23" s="201"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="C24" s="112"/>
       <c r="D24" s="112"/>
       <c r="E24" s="112"/>
@@ -4574,8 +5451,17 @@
       <c r="H24" s="112"/>
       <c r="I24" s="112"/>
       <c r="J24" s="112"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+      <c r="M24" s="202" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="201"/>
+      <c r="O24" s="201"/>
+      <c r="P24" s="201"/>
+      <c r="Q24" s="201"/>
+      <c r="R24" s="201"/>
+      <c r="S24" s="201"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1">
       <c r="C25" s="112"/>
       <c r="D25" s="112"/>
       <c r="E25" s="112"/>
@@ -4584,51 +5470,229 @@
       <c r="H25" s="112"/>
       <c r="I25" s="112"/>
       <c r="J25" s="112"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="176" t="s">
+      <c r="M25" s="202" t="s">
+        <v>96</v>
+      </c>
+      <c r="N25" s="201"/>
+      <c r="O25" s="201"/>
+      <c r="P25" s="201"/>
+      <c r="Q25" s="201"/>
+      <c r="R25" s="201"/>
+      <c r="S25" s="201"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="151">
+      <c r="B26" s="196"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="168">
         <v>0.90512400000000004</v>
       </c>
-      <c r="F26" s="152"/>
-      <c r="G26" s="153">
+      <c r="F26" s="169"/>
+      <c r="G26" s="170">
         <v>0.94084900000000005</v>
       </c>
-      <c r="H26" s="154"/>
-      <c r="I26" s="153">
+      <c r="H26" s="171"/>
+      <c r="I26" s="170">
         <v>0.79789299999999996</v>
       </c>
-      <c r="J26" s="154"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
-      <c r="A27" s="178" t="s">
+      <c r="J26" s="171"/>
+      <c r="M26" s="202" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="201"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="201"/>
+      <c r="Q26" s="201"/>
+      <c r="R26" s="201"/>
+      <c r="S26" s="201"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" thickBot="1">
+      <c r="A27" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="179"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="155">
+      <c r="B27" s="198"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="172">
         <v>0.12931799999999999</v>
       </c>
-      <c r="F27" s="156"/>
-      <c r="G27" s="157">
+      <c r="F27" s="173"/>
+      <c r="G27" s="174">
         <v>0.161106</v>
       </c>
-      <c r="H27" s="158"/>
-      <c r="I27" s="157">
+      <c r="H27" s="175"/>
+      <c r="I27" s="174">
         <v>0.17926400000000001</v>
       </c>
-      <c r="J27" s="158"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="H29" s="205" t="s">
+      <c r="J27" s="175"/>
+      <c r="M27" s="203"/>
+      <c r="N27" s="201"/>
+      <c r="O27" s="201"/>
+      <c r="P27" s="201"/>
+      <c r="Q27" s="201"/>
+      <c r="R27" s="201"/>
+      <c r="S27" s="201"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="M28" s="202" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" s="201"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="201"/>
+      <c r="Q28" s="201"/>
+      <c r="R28" s="201"/>
+      <c r="S28" s="201"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="H29" s="142" t="s">
         <v>88</v>
       </c>
+      <c r="M29" s="202" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="201"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="201"/>
+      <c r="Q29" s="201"/>
+      <c r="R29" s="201"/>
+      <c r="S29" s="201"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="B30" s="204"/>
+      <c r="C30" s="205" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="204"/>
+      <c r="M30" s="202" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="201"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="201"/>
+      <c r="Q30" s="201"/>
+      <c r="R30" s="201"/>
+      <c r="S30" s="201"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="B31" s="204"/>
+      <c r="C31" s="205" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="204"/>
+      <c r="M31" s="202" t="s">
+        <v>101</v>
+      </c>
+      <c r="N31" s="201"/>
+      <c r="O31" s="201"/>
+      <c r="P31" s="201"/>
+      <c r="Q31" s="201"/>
+      <c r="R31" s="201"/>
+      <c r="S31" s="201"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="B32" s="204"/>
+      <c r="C32" s="205" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="204"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="204"/>
+      <c r="M32" s="203"/>
+      <c r="N32" s="201"/>
+      <c r="O32" s="201"/>
+      <c r="P32" s="201"/>
+      <c r="Q32" s="201"/>
+      <c r="R32" s="201"/>
+      <c r="S32" s="201"/>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="204"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="204"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="204"/>
+      <c r="M33" s="203"/>
+      <c r="N33" s="201"/>
+      <c r="O33" s="201"/>
+      <c r="P33" s="201"/>
+      <c r="Q33" s="201"/>
+      <c r="R33" s="201"/>
+      <c r="S33" s="201"/>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="204"/>
+      <c r="C34" s="205" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="204"/>
+      <c r="H34" s="204"/>
+      <c r="I34" s="204"/>
+      <c r="J34" s="204"/>
+      <c r="M34" s="203"/>
+      <c r="N34" s="201"/>
+      <c r="O34" s="201"/>
+      <c r="P34" s="201"/>
+      <c r="Q34" s="201"/>
+      <c r="R34" s="201"/>
+      <c r="S34" s="201"/>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35" s="204"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="204"/>
+      <c r="M35" s="202" t="s">
+        <v>102</v>
+      </c>
+      <c r="N35" s="201"/>
+      <c r="O35" s="201"/>
+      <c r="P35" s="201"/>
+      <c r="Q35" s="201"/>
+      <c r="R35" s="201"/>
+      <c r="S35" s="201"/>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="M36" s="202" t="s">
+        <v>103</v>
+      </c>
+      <c r="N36" s="201"/>
+      <c r="O36" s="201"/>
+      <c r="P36" s="201"/>
+      <c r="Q36" s="201"/>
+      <c r="R36" s="201"/>
+      <c r="S36" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -4663,12 +5727,6 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:V10"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -4678,6 +5736,12 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="I13:J13"/>
@@ -4703,8 +5767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200A8B2E-17D5-4F5A-B051-63EF40240809}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4726,75 +5790,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="185"/>
-      <c r="E1" s="184" t="s">
+      <c r="D1" s="177"/>
+      <c r="E1" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="184" t="s">
+      <c r="F1" s="177"/>
+      <c r="G1" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="184" t="s">
+      <c r="H1" s="177"/>
+      <c r="I1" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="185"/>
-      <c r="N1" s="184" t="s">
+      <c r="J1" s="177"/>
+      <c r="N1" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="185"/>
-      <c r="P1" s="184" t="s">
+      <c r="O1" s="177"/>
+      <c r="P1" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="184" t="s">
+      <c r="Q1" s="177"/>
+      <c r="R1" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="185"/>
-      <c r="T1" s="184" t="s">
+      <c r="S1" s="177"/>
+      <c r="T1" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="185"/>
+      <c r="U1" s="177"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1"/>
     <row r="3" spans="1:21" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="144" t="s">
+      <c r="D3" s="162"/>
+      <c r="E3" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="146" t="s">
+      <c r="F3" s="162"/>
+      <c r="G3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="161"/>
-      <c r="I3" s="146" t="s">
+      <c r="H3" s="178"/>
+      <c r="I3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="161"/>
-      <c r="N3" s="144" t="s">
+      <c r="J3" s="178"/>
+      <c r="N3" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="145"/>
-      <c r="P3" s="144" t="s">
+      <c r="O3" s="162"/>
+      <c r="P3" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146" t="s">
+      <c r="Q3" s="162"/>
+      <c r="R3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="161"/>
-      <c r="T3" s="146" t="s">
+      <c r="S3" s="178"/>
+      <c r="T3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="161"/>
+      <c r="U3" s="178"/>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -4849,7 +5913,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="142" t="b">
+      <c r="A5" s="159" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
@@ -4905,7 +5969,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="143"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="78" t="s">
         <v>69</v>
       </c>
@@ -4995,80 +6059,80 @@
       <c r="U8" s="112"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="177"/>
-      <c r="C9" s="151">
+      <c r="B9" s="196"/>
+      <c r="C9" s="168">
         <v>0.83126500000000003</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="151">
+      <c r="D9" s="169"/>
+      <c r="E9" s="168">
         <v>0.74820799999999998</v>
       </c>
-      <c r="F9" s="152"/>
-      <c r="G9" s="153">
+      <c r="F9" s="169"/>
+      <c r="G9" s="170">
         <v>0.92886899999999994</v>
       </c>
-      <c r="H9" s="154"/>
-      <c r="I9" s="153">
+      <c r="H9" s="171"/>
+      <c r="I9" s="170">
         <v>0.67943100000000001</v>
       </c>
-      <c r="J9" s="154"/>
-      <c r="N9" s="151">
+      <c r="J9" s="171"/>
+      <c r="N9" s="168">
         <v>0.91009700000000004</v>
       </c>
-      <c r="O9" s="152"/>
-      <c r="P9" s="151">
+      <c r="O9" s="169"/>
+      <c r="P9" s="168">
         <v>0.84597299999999997</v>
       </c>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="153">
+      <c r="Q9" s="169"/>
+      <c r="R9" s="170">
         <v>0.92886899999999994</v>
       </c>
-      <c r="S9" s="154"/>
-      <c r="T9" s="153">
+      <c r="S9" s="171"/>
+      <c r="T9" s="170">
         <v>0.67755900000000002</v>
       </c>
-      <c r="U9" s="154"/>
+      <c r="U9" s="171"/>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="179"/>
-      <c r="C10" s="155">
+      <c r="B10" s="198"/>
+      <c r="C10" s="172">
         <v>0.29623100000000002</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="155">
+      <c r="D10" s="173"/>
+      <c r="E10" s="172">
         <v>0.27275899999999997</v>
       </c>
-      <c r="F10" s="156"/>
-      <c r="G10" s="157">
+      <c r="F10" s="173"/>
+      <c r="G10" s="174">
         <v>0.37767000000000001</v>
       </c>
-      <c r="H10" s="158"/>
-      <c r="I10" s="157">
+      <c r="H10" s="175"/>
+      <c r="I10" s="174">
         <v>0.31866899999999998</v>
       </c>
-      <c r="J10" s="158"/>
-      <c r="N10" s="155">
+      <c r="J10" s="175"/>
+      <c r="N10" s="172">
         <v>0.36394100000000001</v>
       </c>
-      <c r="O10" s="156"/>
-      <c r="P10" s="155">
+      <c r="O10" s="173"/>
+      <c r="P10" s="172">
         <v>0.31291200000000002</v>
       </c>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="157">
+      <c r="Q10" s="173"/>
+      <c r="R10" s="174">
         <v>0.37762000000000001</v>
       </c>
-      <c r="S10" s="158"/>
-      <c r="T10" s="157">
+      <c r="S10" s="175"/>
+      <c r="T10" s="174">
         <v>0.32442700000000002</v>
       </c>
-      <c r="U10" s="158"/>
+      <c r="U10" s="175"/>
     </row>
     <row r="11" spans="1:21">
       <c r="C11" s="103"/>
@@ -5093,14 +6157,14 @@
     <row r="13" spans="1:21" ht="15" thickBot="1">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="194"/>
       <c r="P13" s="125" t="s">
         <v>78</v>
       </c>
@@ -5112,45 +6176,45 @@
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1"/>
     <row r="18" spans="1:21" ht="15" thickBot="1">
-      <c r="C18" s="184" t="s">
+      <c r="C18" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="185"/>
-      <c r="E18" s="184" t="s">
+      <c r="D18" s="177"/>
+      <c r="E18" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="185"/>
-      <c r="G18" s="184" t="s">
+      <c r="F18" s="177"/>
+      <c r="G18" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="185"/>
-      <c r="I18" s="184" t="s">
+      <c r="H18" s="177"/>
+      <c r="I18" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="185"/>
+      <c r="J18" s="177"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="A19" s="76"/>
       <c r="B19" s="76"/>
-      <c r="N19" s="184" t="s">
+      <c r="N19" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="O19" s="185"/>
-      <c r="P19" s="184" t="s">
+      <c r="O19" s="177"/>
+      <c r="P19" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="Q19" s="185"/>
-      <c r="R19" s="184" t="s">
+      <c r="Q19" s="177"/>
+      <c r="R19" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="S19" s="185"/>
-      <c r="T19" s="184" t="s">
+      <c r="S19" s="177"/>
+      <c r="T19" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="U19" s="185"/>
+      <c r="U19" s="177"/>
     </row>
     <row r="20" spans="1:21" ht="15" thickBot="1">
-      <c r="A20" s="142" t="b">
+      <c r="A20" s="159" t="b">
         <v>1</v>
       </c>
       <c r="B20" s="77" t="s">
@@ -5182,7 +6246,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1">
-      <c r="A21" s="143"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="78" t="s">
         <v>69</v>
       </c>
@@ -5210,22 +6274,22 @@
       <c r="J21" s="110">
         <v>0.67943100000000001</v>
       </c>
-      <c r="N21" s="144" t="s">
+      <c r="N21" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="145"/>
-      <c r="P21" s="144" t="s">
+      <c r="O21" s="162"/>
+      <c r="P21" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="145"/>
-      <c r="R21" s="146" t="s">
+      <c r="Q21" s="162"/>
+      <c r="R21" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="161"/>
-      <c r="T21" s="146" t="s">
+      <c r="S21" s="178"/>
+      <c r="T21" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="U21" s="161"/>
+      <c r="U21" s="178"/>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
       <c r="C22" s="112"/>
@@ -5272,7 +6336,7 @@
       <c r="H23" s="112"/>
       <c r="I23" s="112"/>
       <c r="J23" s="112"/>
-      <c r="L23" s="142" t="b">
+      <c r="L23" s="159" t="b">
         <v>1</v>
       </c>
       <c r="M23" s="77" t="s">
@@ -5304,27 +6368,27 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="151">
+      <c r="B24" s="196"/>
+      <c r="C24" s="168">
         <v>0.83126500000000003</v>
       </c>
-      <c r="D24" s="152"/>
-      <c r="E24" s="151">
+      <c r="D24" s="169"/>
+      <c r="E24" s="168">
         <v>0.74820799999999998</v>
       </c>
-      <c r="F24" s="152"/>
-      <c r="G24" s="153">
+      <c r="F24" s="169"/>
+      <c r="G24" s="170">
         <v>0.85661600000000004</v>
       </c>
-      <c r="H24" s="154"/>
-      <c r="I24" s="153">
+      <c r="H24" s="171"/>
+      <c r="I24" s="170">
         <v>0.67943100000000001</v>
       </c>
-      <c r="J24" s="154"/>
-      <c r="L24" s="143"/>
+      <c r="J24" s="171"/>
+      <c r="L24" s="160"/>
       <c r="M24" s="78" t="s">
         <v>69</v>
       </c>
@@ -5354,26 +6418,26 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" thickBot="1">
-      <c r="A25" s="178" t="s">
+      <c r="A25" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="155">
+      <c r="B25" s="198"/>
+      <c r="C25" s="172">
         <v>0.29623100000000002</v>
       </c>
-      <c r="D25" s="156"/>
-      <c r="E25" s="155">
+      <c r="D25" s="173"/>
+      <c r="E25" s="172">
         <v>0.27275899999999997</v>
       </c>
-      <c r="F25" s="156"/>
-      <c r="G25" s="157">
+      <c r="F25" s="173"/>
+      <c r="G25" s="174">
         <v>0.303809</v>
       </c>
-      <c r="H25" s="158"/>
-      <c r="I25" s="157">
+      <c r="H25" s="175"/>
+      <c r="I25" s="174">
         <v>0.31866899999999998</v>
       </c>
-      <c r="J25" s="158"/>
+      <c r="J25" s="175"/>
       <c r="N25" s="112"/>
       <c r="O25" s="112"/>
       <c r="P25" s="112"/>
@@ -5394,51 +6458,51 @@
       <c r="U26" s="112"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="E27" s="205" t="s">
+      <c r="E27" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="L27" s="176" t="s">
+      <c r="L27" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="M27" s="177"/>
-      <c r="N27" s="151">
+      <c r="M27" s="196"/>
+      <c r="N27" s="168">
         <v>0.87282099999999996</v>
       </c>
-      <c r="O27" s="152"/>
-      <c r="P27" s="151">
+      <c r="O27" s="169"/>
+      <c r="P27" s="168">
         <v>0.78762399999999999</v>
       </c>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="153">
+      <c r="Q27" s="169"/>
+      <c r="R27" s="170">
         <v>0.89817100000000005</v>
       </c>
-      <c r="S27" s="154"/>
-      <c r="T27" s="153">
+      <c r="S27" s="171"/>
+      <c r="T27" s="170">
         <v>0.71194800000000003</v>
       </c>
-      <c r="U27" s="154"/>
+      <c r="U27" s="171"/>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1">
-      <c r="L28" s="178" t="s">
+      <c r="L28" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="M28" s="179"/>
-      <c r="N28" s="155">
+      <c r="M28" s="198"/>
+      <c r="N28" s="172">
         <v>0.104862</v>
       </c>
-      <c r="O28" s="156"/>
-      <c r="P28" s="155">
+      <c r="O28" s="173"/>
+      <c r="P28" s="172">
         <v>7.7206999999999998E-2</v>
       </c>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="157">
+      <c r="Q28" s="173"/>
+      <c r="R28" s="174">
         <v>0.115245</v>
       </c>
-      <c r="S28" s="158"/>
-      <c r="T28" s="157">
+      <c r="S28" s="175"/>
+      <c r="T28" s="174">
         <v>0.11637599999999999</v>
       </c>
-      <c r="U28" s="158"/>
+      <c r="U28" s="175"/>
     </row>
     <row r="30" spans="1:21">
       <c r="P30" t="s">
@@ -5452,11 +6516,19 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="R27:S27"/>
@@ -5473,14 +6545,6 @@
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5542,10 +6606,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="132"/>
+      <c r="H1" s="149"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -5777,10 +6841,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="127"/>
+      <c r="G1" s="144"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -6520,10 +7584,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="127"/>
+      <c r="G1" s="144"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -7255,10 +8319,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="127"/>
+      <c r="G1" s="144"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -7768,10 +8832,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="127"/>
+      <c r="G1" s="144"/>
       <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
@@ -8079,11 +9143,11 @@
       <c r="D13" s="4">
         <v>1.51753</v>
       </c>
-      <c r="F13" s="128"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="130"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3">
@@ -8553,10 +9617,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="127"/>
+      <c r="G1" s="144"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -8863,13 +9927,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="128" t="s">
+      <c r="E14" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="147"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -9328,10 +10392,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="127"/>
+      <c r="G1" s="144"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -10075,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="127"/>
+      <c r="G1" s="144"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -10385,13 +11449,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="128" t="s">
+      <c r="E14" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="147"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -10851,10 +11915,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="127"/>
+      <c r="G1" s="144"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -11165,13 +12229,13 @@
       <c r="D14" s="4">
         <v>1.988488</v>
       </c>
-      <c r="E14" s="128" t="s">
+      <c r="E14" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="147"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
@@ -12074,10 +13138,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="132"/>
+      <c r="H1" s="149"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -12312,10 +13376,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="132"/>
+      <c r="H1" s="149"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -12554,10 +13618,10 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="46"/>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="133"/>
+      <c r="E2" s="150"/>
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="3:6">
